--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H2" t="n">
         <v>3.15</v>
@@ -682,91 +682,91 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI2" t="n">
         <v>44</v>
       </c>
-      <c r="AF2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
@@ -829,25 +829,25 @@
         <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.68</v>
@@ -856,7 +856,7 @@
         <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -940,10 +940,10 @@
         <v>1.67</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="I4" t="n">
         <v>8.800000000000001</v>
@@ -1078,16 +1078,16 @@
         <v>2.68</v>
       </c>
       <c r="H5" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>2.62</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G6" t="n">
         <v>4.2</v>
@@ -1216,10 +1216,10 @@
         <v>1.99</v>
       </c>
       <c r="I6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1240,7 +1240,7 @@
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
         <v>1.5</v>
@@ -1300,10 +1300,10 @@
         <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>75</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H7" t="n">
         <v>1.77</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
         <v>2.22</v>
       </c>
       <c r="H8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>3.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.28</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
         <v>3.15</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -703,7 +703,7 @@
         <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
         <v>3.05</v>
@@ -721,13 +721,13 @@
         <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>60</v>
@@ -739,31 +739,31 @@
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
@@ -811,16 +811,16 @@
         <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -832,16 +832,16 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.63</v>
@@ -850,19 +850,19 @@
         <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
         <v>14.5</v>
@@ -889,7 +889,7 @@
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,7 +898,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,13 +907,13 @@
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Karvan Evlakh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Kapaz Ganja</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.04</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.98</v>
-      </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.62</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>1.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,64 +1126,64 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.95</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>1.99</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.85</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1264,61 +1264,61 @@
         <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>38</v>
       </c>
-      <c r="AG6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>75</v>
-      </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="I7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J7" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,192 +1396,327 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Levante</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>2.16</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>2.22</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>3.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>3.7</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.07</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>3.85</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>1.33</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1.95</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="Q9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.55</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>1.81</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>2.16</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y9" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z9" t="n">
         <v>27</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA9" t="n">
         <v>75</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB9" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC9" t="n">
         <v>8</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD9" t="n">
         <v>16</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE9" t="n">
         <v>46</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF9" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AH8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
         <v>55</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AJ9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK9" t="n">
         <v>23</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL9" t="n">
         <v>40</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM9" t="n">
         <v>120</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN9" t="n">
         <v>17</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO9" t="n">
         <v>48</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
         <v>2.42</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -682,10 +682,10 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,22 +694,22 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,61 +718,61 @@
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G3" t="n">
         <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -835,7 +835,7 @@
         <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
@@ -844,13 +844,13 @@
         <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
         <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W3" t="n">
         <v>1.48</v>
@@ -862,7 +862,7 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>1.92</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>1.91</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.95</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.04</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
         <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL7" t="n">
         <v>44</v>
       </c>
-      <c r="AL7" t="n">
-        <v>980</v>
-      </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,260 +1463,1340 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>FC Urartu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>FC Pyunik</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G8" t="n">
         <v>3.55</v>
       </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12:15:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Al-Ittihad</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Al Riyadh SC</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Al Ahli</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al-Quadisiya (KSA)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Levante</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.16</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
         <v>27</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA17" t="n">
         <v>75</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB17" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC17" t="n">
         <v>8</v>
       </c>
-      <c r="AD9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>46</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
         <v>55</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ17" t="n">
         <v>27</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK17" t="n">
         <v>23</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL17" t="n">
         <v>40</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM17" t="n">
         <v>120</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN17" t="n">
         <v>17</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO17" t="n">
         <v>48</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,22 +670,22 @@
         <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,7 +694,7 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
@@ -703,7 +703,7 @@
         <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -715,10 +715,10 @@
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -733,10 +733,10 @@
         <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>17.5</v>
@@ -745,7 +745,7 @@
         <v>44</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
@@ -754,22 +754,22 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
         <v>38</v>
@@ -862,7 +862,7 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>16.5</v>
@@ -898,7 +898,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
         <v>2.8</v>
@@ -952,7 +952,7 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
         <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.55</v>
@@ -991,37 +991,37 @@
         <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>FC Ararat Yerevan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Ararat Armenia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>11.5</v>
+        <v>1.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.47</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S6" t="n">
         <v>5.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Urartu</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Pyunik</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.94</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,79 +1501,79 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.92</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>FC Urartu</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>FC Pyunik</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.29</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
-        <v>1.37</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>9.6</v>
+        <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>13.5</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>1.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>2.82</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>3.7</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>610</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>870</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>2.14</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62</v>
+        <v>1.07</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.72</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>16</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.06</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>960</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>960</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>960</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>960</v>
       </c>
       <c r="AE15" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>36</v>
+        <v>960</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>960</v>
       </c>
       <c r="AI15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK15" t="n">
         <v>32</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>44</v>
       </c>
-      <c r="AL15" t="n">
-        <v>980</v>
-      </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>6.4</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,125 +2678,6200 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>960</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>960</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>960</v>
       </c>
       <c r="AE17" t="n">
         <v>46</v>
       </c>
       <c r="AF17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AD18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
         <v>18</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AL19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Al Ahli</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Al-Quadisiya (KSA)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>980</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>German 3 Liga</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Hoffenheim II</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Duisburg</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Norwegian Eliteserien</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kfum Oslo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X24" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FC Wil</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Aubagne FC</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>950</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Villefranche Beaujolais</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hungarian NB I</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Gyori</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Zalaegerszeg</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X35" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Boulogne</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>55</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK36" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ESTAC Troyes</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X40" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X41" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X42" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X43" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X44" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X46" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD46" t="n">
         <v>27</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AE46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X47" t="n">
         <v>23</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="Y47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X48" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Rapperswil-Jona</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Pogon Grodzisk Mazowiecki</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Wisla Plock</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X54" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Audace Cerignola</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Crotone</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>First Vienna Fc 1894</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Rapid Vienna (Am)</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X56" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X57" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X58" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Aurora Pro Patria 1919</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pergolettese</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K61" t="n">
+        <v>950</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL62" t="n">
         <v>40</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM62" t="n">
         <v>120</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN62" t="n">
         <v>17</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO62" t="n">
         <v>48</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G2" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.6</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
@@ -847,13 +847,13 @@
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
@@ -862,7 +862,7 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
         <v>2.06</v>
@@ -952,7 +952,7 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
         <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -1006,13 +1006,13 @@
         <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.33</v>
@@ -1231,10 +1231,10 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1249,7 +1249,7 @@
         <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
         <v>1.56</v>
@@ -1522,7 +1522,7 @@
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1534,10 +1534,10 @@
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1555,7 +1555,7 @@
         <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
         <v>14.5</v>
@@ -1567,7 +1567,7 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
         <v>3.2</v>
@@ -1621,7 +1621,7 @@
         <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1660,7 +1660,7 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="W9" t="n">
         <v>1.45</v>
@@ -1786,7 +1786,7 @@
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
         <v>3.75</v>
@@ -1951,10 +1951,10 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
         <v>160</v>
@@ -1963,16 +1963,16 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
         <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK11" t="n">
         <v>16.5</v>
@@ -2023,7 +2023,7 @@
         <v>2.76</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
         <v>1.76</v>
@@ -2293,16 +2293,16 @@
         <v>1.1</v>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" t="n">
         <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="K14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>3.65</v>
@@ -2470,64 +2470,64 @@
         <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
         <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2734,7 +2734,7 @@
         <v>2.96</v>
       </c>
       <c r="T17" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -2746,37 +2746,37 @@
         <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2785,7 +2785,7 @@
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
         <v>65</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G18" t="n">
         <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
         <v>4.6</v>
@@ -2851,22 +2851,22 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q18" t="n">
         <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
@@ -2884,7 +2884,7 @@
         <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="n">
         <v>60</v>
@@ -2899,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>80</v>
@@ -2911,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK18" t="n">
         <v>16</v>
@@ -2929,7 +2929,7 @@
         <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>75</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
         <v>4.1</v>
@@ -2992,7 +2992,7 @@
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
         <v>1.65</v>
@@ -3001,19 +3001,19 @@
         <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
         <v>1.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3022,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>110</v>
@@ -3034,22 +3034,22 @@
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
         <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
         <v>22</v>
@@ -3061,10 +3061,10 @@
         <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO19" t="n">
         <v>38</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,7 +3130,7 @@
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R20" t="n">
         <v>1.33</v>
@@ -3145,10 +3145,10 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3268,7 +3268,7 @@
         <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
         <v>2.14</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3400,7 +3400,7 @@
         <v>2.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
         <v>1.59</v>
@@ -3445,7 +3445,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
         <v>18</v>
@@ -3454,22 +3454,22 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
         <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
         <v>9.199999999999999</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.55</v>
@@ -3649,7 +3649,7 @@
         <v>1.48</v>
       </c>
       <c r="J24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
         <v>5.8</v>
@@ -3661,10 +3661,10 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
         <v>2.58</v>
@@ -3673,76 +3673,76 @@
         <v>1.55</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA24" t="n">
-        <v>19</v>
-      </c>
       <c r="AB24" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AG24" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="H25" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I25" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3796,19 +3796,19 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R25" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
         <v>2.68</v>
@@ -3817,13 +3817,13 @@
         <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3844,16 +3844,16 @@
         <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>28</v>
       </c>
       <c r="AF25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
         <v>3.5</v>
       </c>
-      <c r="G26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.04</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>2.56</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4477,13 +4477,13 @@
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
         <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
         <v>3.35</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -4594,10 +4594,10 @@
         <v>7.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4720,7 +4720,7 @@
         <v>1.55</v>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H32" t="n">
         <v>5.3</v>
@@ -4768,7 +4768,7 @@
         <v>1.15</v>
       </c>
       <c r="W32" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4888,7 +4888,7 @@
         <v>1.93</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
         <v>3.15</v>
@@ -5125,7 +5125,7 @@
         <v>1.48</v>
       </c>
       <c r="G35" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H35" t="n">
         <v>6.2</v>
@@ -5158,16 +5158,16 @@
         <v>1.55</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S35" t="n">
         <v>2.16</v>
       </c>
       <c r="T35" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V35" t="n">
         <v>1.01</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
         <v>17</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5260,7 +5260,7 @@
         <v>2.54</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H36" t="n">
         <v>3.05</v>
@@ -5269,7 +5269,7 @@
         <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
         <v>3.45</v>
@@ -5281,25 +5281,25 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="O36" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="P36" t="n">
         <v>1.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
@@ -5308,7 +5308,7 @@
         <v>1.41</v>
       </c>
       <c r="W36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X36" t="n">
         <v>15.5</v>
@@ -5317,7 +5317,7 @@
         <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
         <v>90</v>
@@ -5329,19 +5329,19 @@
         <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE36" t="n">
         <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
         <v>18</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
         <v>90</v>
@@ -5350,7 +5350,7 @@
         <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
         <v>75</v>
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.44</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.05</v>
-      </c>
       <c r="I37" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="W37" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
         <v>12.5</v>
       </c>
       <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF37" t="n">
         <v>25</v>
       </c>
-      <c r="AA37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AG37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
         <v>50</v>
       </c>
-      <c r="AF37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN37" t="n">
         <v>40</v>
       </c>
-      <c r="AL37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G38" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="K38" t="n">
         <v>3.15</v>
@@ -5560,13 +5560,13 @@
         <v>1.43</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T38" t="n">
         <v>2.22</v>
@@ -5575,10 +5575,10 @@
         <v>1.64</v>
       </c>
       <c r="V38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W38" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X38" t="n">
         <v>8.800000000000001</v>
@@ -5587,7 +5587,7 @@
         <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
         <v>110</v>
@@ -5596,31 +5596,31 @@
         <v>7.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE38" t="n">
         <v>85</v>
       </c>
       <c r="AF38" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
         <v>85</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G39" t="n">
         <v>4.5</v>
@@ -5671,7 +5671,7 @@
         <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -5683,13 +5683,13 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
         <v>1.64</v>
@@ -5710,64 +5710,64 @@
         <v>1.86</v>
       </c>
       <c r="V39" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W39" t="n">
         <v>1.29</v>
       </c>
       <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB39" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL39" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
         <v>2.82</v>
       </c>
       <c r="H40" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I40" t="n">
         <v>2.7</v>
@@ -5812,7 +5812,7 @@
         <v>3.95</v>
       </c>
       <c r="K40" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,28 +5821,28 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>5.5</v>
+        <v>2.74</v>
       </c>
       <c r="O40" t="n">
         <v>1.14</v>
       </c>
       <c r="P40" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="T40" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
         <v>1.58</v>
@@ -5851,49 +5851,49 @@
         <v>1.54</v>
       </c>
       <c r="X40" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB40" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
         <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
         <v>65</v>
@@ -5968,10 +5968,10 @@
         <v>1.47</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T41" t="n">
         <v>1.32</v>
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="H42" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U42" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="V42" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA42" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>15</v>
       </c>
       <c r="AE42" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL42" t="n">
         <v>55</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>60</v>
-      </c>
       <c r="AM42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="I43" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J43" t="n">
         <v>4.3</v>
       </c>
       <c r="K43" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6232,16 +6232,16 @@
         <v>1.14</v>
       </c>
       <c r="P43" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R43" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T43" t="n">
         <v>1.42</v>
@@ -6256,49 +6256,49 @@
         <v>1.01</v>
       </c>
       <c r="X43" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Y43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AB43" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AD43" t="n">
         <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
         <v>60</v>
       </c>
-      <c r="AG43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>65</v>
-      </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
         <v>75</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="G44" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
         <v>5.3</v>
@@ -6370,16 +6370,16 @@
         <v>3.15</v>
       </c>
       <c r="Q44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.32</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.31</v>
       </c>
       <c r="U44" t="n">
         <v>2.36</v>
@@ -6394,46 +6394,46 @@
         <v>55</v>
       </c>
       <c r="Y44" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z44" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AC44" t="n">
         <v>18</v>
       </c>
       <c r="AD44" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE44" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF44" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI44" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ44" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK44" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM44" t="n">
         <v>65</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -6484,10 +6484,10 @@
         <v>3.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,25 +6496,25 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T45" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="U45" t="n">
         <v>1.04</v>
@@ -6523,7 +6523,7 @@
         <v>1.41</v>
       </c>
       <c r="W45" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6610,13 +6610,13 @@
         <v>1.82</v>
       </c>
       <c r="G46" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J46" t="n">
         <v>4.6</v>
@@ -6631,85 +6631,85 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P46" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R46" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W46" t="n">
         <v>2</v>
       </c>
-      <c r="S46" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W46" t="n">
-        <v>2.02</v>
-      </c>
       <c r="X46" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y46" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Z46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA46" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC46" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AD46" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE46" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF46" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ46" t="n">
         <v>36</v>
       </c>
       <c r="AK46" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL46" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AM46" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6745,7 +6745,7 @@
         <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>3.15</v>
@@ -6757,7 +6757,7 @@
         <v>3.75</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,34 +6766,34 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O47" t="n">
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q47" t="n">
         <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S47" t="n">
         <v>2.52</v>
       </c>
       <c r="T47" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V47" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W47" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X47" t="n">
         <v>23</v>
@@ -6802,7 +6802,7 @@
         <v>17.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA47" t="n">
         <v>55</v>
@@ -6817,10 +6817,10 @@
         <v>15</v>
       </c>
       <c r="AE47" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF47" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
         <v>12</v>
@@ -6829,19 +6829,19 @@
         <v>16</v>
       </c>
       <c r="AI47" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK47" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM47" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
         <v>12.5</v>
@@ -6880,19 +6880,19 @@
         <v>2.62</v>
       </c>
       <c r="G48" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H48" t="n">
         <v>2.38</v>
       </c>
       <c r="I48" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6901,28 +6901,28 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="R48" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="S48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T48" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U48" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V48" t="n">
         <v>1.01</v>
@@ -6931,10 +6931,10 @@
         <v>1.01</v>
       </c>
       <c r="X48" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z48" t="n">
         <v>30</v>
@@ -6943,13 +6943,13 @@
         <v>50</v>
       </c>
       <c r="AB48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE48" t="n">
         <v>34</v>
@@ -6958,13 +6958,13 @@
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH48" t="n">
         <v>21</v>
       </c>
       <c r="AI48" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="n">
         <v>60</v>
@@ -6973,7 +6973,7 @@
         <v>38</v>
       </c>
       <c r="AL48" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM48" t="n">
         <v>75</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="I49" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="J49" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,34 +7036,34 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>2.52</v>
+        <v>4.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W49" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7183,10 +7183,10 @@
         <v>1.79</v>
       </c>
       <c r="R50" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S50" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T50" t="n">
         <v>1.5</v>
@@ -7288,7 +7288,7 @@
         <v>6.8</v>
       </c>
       <c r="H51" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I51" t="n">
         <v>2.06</v>
@@ -7297,7 +7297,7 @@
         <v>3.4</v>
       </c>
       <c r="K51" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7318,10 +7318,10 @@
         <v>1.21</v>
       </c>
       <c r="R51" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T51" t="n">
         <v>1.04</v>
@@ -7438,13 +7438,13 @@
         <v>1.41</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O52" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P52" t="n">
         <v>1.81</v>
@@ -7453,16 +7453,16 @@
         <v>2.06</v>
       </c>
       <c r="R52" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S52" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T52" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="U52" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
         <v>1.21</v>
@@ -7471,52 +7471,52 @@
         <v>2.18</v>
       </c>
       <c r="X52" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y52" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB52" t="n">
-        <v>960</v>
+        <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>960</v>
+        <v>8.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE52" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF52" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG52" t="n">
-        <v>960</v>
+        <v>10.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK52" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
         <v>1000</v>
@@ -7708,10 +7708,10 @@
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O54" t="n">
         <v>1.32</v>
@@ -7720,19 +7720,19 @@
         <v>1.9</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R54" t="n">
         <v>1.29</v>
       </c>
       <c r="S54" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T54" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="V54" t="n">
         <v>1.15</v>
@@ -7741,10 +7741,10 @@
         <v>2.28</v>
       </c>
       <c r="X54" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Z54" t="n">
         <v>70</v>
@@ -7756,31 +7756,31 @@
         <v>11.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG54" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH54" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK54" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL54" t="n">
         <v>55</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,46 +7822,46 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G55" t="n">
         <v>3.45</v>
       </c>
       <c r="H55" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="J55" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K55" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L55" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R55" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="S55" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="T55" t="n">
         <v>1.04</v>
@@ -7870,7 +7870,7 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="W55" t="n">
         <v>1.41</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,118 +7948,118 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>First Vienna Fc 1894</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rapid Vienna (Am)</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="G56" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="I56" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2.06</v>
       </c>
-      <c r="O56" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R56" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S56" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="T56" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="U56" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="W56" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="X56" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y56" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AB56" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC56" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN56" t="n">
         <v>13</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1000</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,127 +8083,127 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="G57" t="n">
-        <v>1.82</v>
+        <v>2.66</v>
       </c>
       <c r="H57" t="n">
-        <v>5.5</v>
+        <v>2.74</v>
       </c>
       <c r="I57" t="n">
-        <v>6.2</v>
+        <v>2.78</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P57" t="n">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="S57" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="T57" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="U57" t="n">
-        <v>1.68</v>
+        <v>2.64</v>
       </c>
       <c r="V57" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="W57" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="X57" t="n">
-        <v>960</v>
+        <v>23</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB57" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
-        <v>960</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE57" t="n">
         <v>26</v>
       </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF57" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG57" t="n">
         <v>12</v>
       </c>
-      <c r="AG57" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH57" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ57" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AK57" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL57" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,121 +8218,121 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>First Vienna Fc 1894</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="G58" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="H58" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="J58" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="O58" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P58" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="S58" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T58" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U58" t="n">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
       <c r="V58" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="W58" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="X58" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD58" t="n">
         <v>23</v>
       </c>
-      <c r="Y58" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>13</v>
-      </c>
       <c r="AE58" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AF58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK58" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL58" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AM58" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G59" t="n">
         <v>3.8</v>
@@ -8371,22 +8371,22 @@
         <v>2.48</v>
       </c>
       <c r="I59" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J59" t="n">
         <v>2.6</v>
       </c>
       <c r="K59" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
@@ -8395,22 +8395,22 @@
         <v>1.36</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R59" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S59" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W59" t="n">
         <v>1.36</v>
@@ -8500,7 +8500,7 @@
         <v>3.95</v>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -8509,13 +8509,13 @@
         <v>2.04</v>
       </c>
       <c r="J60" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K60" t="n">
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8530,7 +8530,7 @@
         <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
@@ -8539,25 +8539,25 @@
         <v>2.9</v>
       </c>
       <c r="T60" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U60" t="n">
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y60" t="n">
         <v>11.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA60" t="n">
         <v>23</v>
@@ -8566,34 +8566,34 @@
         <v>17.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE60" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF60" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH60" t="n">
         <v>16.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ60" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM60" t="n">
         <v>75</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,261 +8618,666 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G61" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="I61" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="J61" t="n">
         <v>3.55</v>
       </c>
       <c r="K61" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K62" t="n">
+        <v>980</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Levante</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F63" t="n">
         <v>2.18</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G63" t="n">
         <v>2.22</v>
       </c>
-      <c r="H62" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="H63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I63" t="n">
         <v>3.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J63" t="n">
         <v>3.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K63" t="n">
         <v>3.7</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
+      <c r="L63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M63" t="n">
         <v>1.07</v>
       </c>
-      <c r="N62" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O62" t="n">
+      <c r="N63" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O63" t="n">
         <v>1.32</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P63" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q62" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R62" t="n">
+      <c r="Q63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R63" t="n">
         <v>1.37</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S63" t="n">
         <v>3.55</v>
       </c>
-      <c r="T62" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U62" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y62" t="n">
+      <c r="T63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X63" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y63" t="n">
         <v>14</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="Z63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>27</v>
       </c>
-      <c r="AA62" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN62" t="n">
+      <c r="AK63" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN63" t="n">
         <v>17</v>
       </c>
-      <c r="AO62" t="n">
-        <v>48</v>
+      <c r="AO63" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CD Gualberto Villarroel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Club Independiente Petr</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Bo</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -679,46 +679,46 @@
         <v>3.65</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
         <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -730,49 +730,49 @@
         <v>980</v>
       </c>
       <c r="AA2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM2" t="n">
         <v>65</v>
       </c>
-      <c r="AB2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>75</v>
-      </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -811,10 +811,10 @@
         <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
@@ -841,7 +841,7 @@
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -901,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
         <v>25</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
         <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.5</v>
@@ -967,10 +967,10 @@
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -985,52 +985,52 @@
         <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
         <v>1.38</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="n">
         <v>15</v>
       </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AH4" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>25</v>
-      </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G5" t="n">
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,7 +1120,7 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="W5" t="n">
         <v>1.04</v>
@@ -1216,7 +1216,7 @@
         <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
@@ -1225,7 +1225,7 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1234,7 +1234,7 @@
         <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK8" t="n">
         <v>22</v>
       </c>
-      <c r="Y8" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>25</v>
-      </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1621,7 +1621,7 @@
         <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1630,7 +1630,7 @@
         <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1660,7 +1660,7 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>1.45</v>
@@ -1759,7 +1759,7 @@
         <v>870</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1885,13 +1885,13 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H11" t="n">
         <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
         <v>5.9</v>
@@ -1912,7 +1912,7 @@
         <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q11" t="n">
         <v>1.44</v>
@@ -1924,19 +1924,19 @@
         <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1948,13 +1948,13 @@
         <v>380</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>15.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>160</v>
@@ -1966,7 +1966,7 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>120</v>
@@ -1975,7 +1975,7 @@
         <v>13.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
@@ -1984,7 +1984,7 @@
         <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
         <v>2.76</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>1.1</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
         <v>44</v>
@@ -2302,7 +2302,7 @@
         <v>16.5</v>
       </c>
       <c r="K14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>2.74</v>
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
         <v>3.65</v>
@@ -2458,22 +2458,22 @@
         <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
         <v>2.66</v>
       </c>
       <c r="T15" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2503,7 +2503,7 @@
         <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,55 +2692,55 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
         <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
         <v>1.46</v>
@@ -2761,7 +2761,7 @@
         <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>980</v>
@@ -2788,7 +2788,7 @@
         <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2833,7 +2833,7 @@
         <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
         <v>6.8</v>
@@ -2857,16 +2857,16 @@
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
@@ -2884,7 +2884,7 @@
         <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>60</v>
@@ -2902,16 +2902,16 @@
         <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>70</v>
@@ -2926,7 +2926,7 @@
         <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
         <v>7</v>
@@ -3031,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,70 +3130,70 @@
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3235,19 +3235,19 @@
         <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,34 +3256,34 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T21" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="n">
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3397,10 +3397,10 @@
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
         <v>1.59</v>
@@ -3643,7 +3643,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I24" t="n">
         <v>1.48</v>
@@ -3685,13 +3685,13 @@
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
         <v>11.5</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H25" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="I25" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3919,7 +3919,7 @@
         <v>5.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
@@ -3949,7 +3949,7 @@
         <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -3967,7 +3967,7 @@
         <v>19.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J28" t="n">
         <v>2.92</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,16 +4201,16 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H29" t="n">
         <v>2.14</v>
       </c>
       <c r="I29" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.02</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="G30" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I30" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.35</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
         <v>1.04</v>
@@ -4495,61 +4495,61 @@
         <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,7 +4606,7 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
@@ -4615,7 +4615,7 @@
         <v>1.69</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
@@ -4630,10 +4630,10 @@
         <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="G32" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="H32" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
         <v>3.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V32" t="n">
         <v>1.15</v>
       </c>
       <c r="W32" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,34 +4783,34 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4858,13 +4858,13 @@
         <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
         <v>5.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
         <v>4.7</v>
@@ -4876,7 +4876,7 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
@@ -4885,7 +4885,7 @@
         <v>1.76</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R33" t="n">
         <v>1.25</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5017,7 +5017,7 @@
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="Q34" t="n">
         <v>2.1</v>
@@ -5035,10 +5035,10 @@
         <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5125,16 +5125,16 @@
         <v>1.48</v>
       </c>
       <c r="G35" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H35" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
         <v>5.5</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
         <v>17</v>
@@ -5248,115 +5248,115 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="G36" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="H36" t="n">
         <v>3.05</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J36" t="n">
         <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="O36" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="P36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q36" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI36" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL36" t="n">
         <v>55</v>
       </c>
-      <c r="AK36" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>75</v>
-      </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
@@ -5416,10 +5416,10 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P37" t="n">
         <v>1.84</v>
@@ -5434,10 +5434,10 @@
         <v>3.6</v>
       </c>
       <c r="T37" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U37" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
         <v>1.61</v>
@@ -5446,7 +5446,7 @@
         <v>1.43</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
         <v>12.5</v>
@@ -5527,37 +5527,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G38" t="n">
         <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K38" t="n">
         <v>3.15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M38" t="n">
         <v>1.15</v>
       </c>
       <c r="N38" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="O38" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="P38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
         <v>2.72</v>
@@ -5572,7 +5572,7 @@
         <v>2.22</v>
       </c>
       <c r="U38" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V38" t="n">
         <v>1.35</v>
@@ -5581,7 +5581,7 @@
         <v>1.62</v>
       </c>
       <c r="X38" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y38" t="n">
         <v>10.5</v>
@@ -5590,7 +5590,7 @@
         <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="n">
         <v>7.4</v>
@@ -5602,7 +5602,7 @@
         <v>980</v>
       </c>
       <c r="AE38" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF38" t="n">
         <v>980</v>
@@ -5632,7 +5632,7 @@
         <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -5821,10 +5821,10 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>2.74</v>
+        <v>6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P40" t="n">
         <v>2.74</v>
@@ -5833,16 +5833,16 @@
         <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S40" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T40" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="V40" t="n">
         <v>1.58</v>
@@ -5866,7 +5866,7 @@
         <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AD40" t="n">
         <v>980</v>
@@ -5887,7 +5887,7 @@
         <v>980</v>
       </c>
       <c r="AJ40" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
         <v>980</v>
@@ -5896,7 +5896,7 @@
         <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AN40" t="n">
         <v>1000</v>
@@ -6058,31 +6058,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G42" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="I42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,70 +6091,70 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P42" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="Q42" t="n">
         <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U42" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y42" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
         <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
         <v>980</v>
       </c>
       <c r="AF42" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
         <v>980</v>
@@ -6166,7 +6166,7 @@
         <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="H43" t="n">
-        <v>1.75</v>
+        <v>1.09</v>
       </c>
       <c r="I43" t="n">
         <v>1.85</v>
       </c>
       <c r="J43" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,10 +6226,10 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P43" t="n">
         <v>2.88</v>
@@ -6241,19 +6241,19 @@
         <v>1.78</v>
       </c>
       <c r="S43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T43" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U43" t="n">
         <v>2.4</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="W43" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X43" t="n">
         <v>980</v>
@@ -6274,40 +6274,40 @@
         <v>980</v>
       </c>
       <c r="AD43" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE43" t="n">
         <v>980</v>
       </c>
       <c r="AF43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
         <v>55</v>
       </c>
-      <c r="AG43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>75</v>
-      </c>
       <c r="AN43" t="n">
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="44">
@@ -6343,13 +6343,13 @@
         <v>1.98</v>
       </c>
       <c r="H44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K44" t="n">
         <v>5.3</v>
@@ -6373,16 +6373,16 @@
         <v>1.33</v>
       </c>
       <c r="R44" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S44" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="T44" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="U44" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V44" t="n">
         <v>1.01</v>
@@ -6391,7 +6391,7 @@
         <v>1.01</v>
       </c>
       <c r="X44" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Y44" t="n">
         <v>980</v>
@@ -6406,40 +6406,40 @@
         <v>980</v>
       </c>
       <c r="AC44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AN44" t="n">
         <v>18</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>1000</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G45" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J45" t="n">
         <v>3.4</v>
@@ -6493,13 +6493,13 @@
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P45" t="n">
         <v>2.32</v>
@@ -6508,22 +6508,22 @@
         <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S45" t="n">
         <v>2.32</v>
       </c>
       <c r="T45" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V45" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6538,13 +6538,13 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
@@ -6553,7 +6553,7 @@
         <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH45" t="n">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6631,52 +6631,52 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O46" t="n">
         <v>1.1</v>
       </c>
       <c r="P46" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>1.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="V46" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X46" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y46" t="n">
         <v>980</v>
       </c>
       <c r="Z46" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC46" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AD46" t="n">
         <v>980</v>
@@ -6688,16 +6688,16 @@
         <v>980</v>
       </c>
       <c r="AG46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="n">
         <v>18</v>
       </c>
-      <c r="AH46" t="n">
-        <v>980</v>
-      </c>
       <c r="AI46" t="n">
         <v>980</v>
       </c>
       <c r="AJ46" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK46" t="n">
         <v>980</v>
@@ -6709,7 +6709,7 @@
         <v>980</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6760,7 +6760,7 @@
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
@@ -6781,10 +6781,10 @@
         <v>1.54</v>
       </c>
       <c r="S47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T47" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U47" t="n">
         <v>2.46</v>
@@ -6886,7 +6886,7 @@
         <v>2.38</v>
       </c>
       <c r="I48" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J48" t="n">
         <v>3.9</v>
@@ -6895,13 +6895,13 @@
         <v>4.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="O48" t="n">
         <v>1.17</v>
@@ -6913,28 +6913,28 @@
         <v>1.51</v>
       </c>
       <c r="R48" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="S48" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T48" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="U48" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="V48" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W48" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X48" t="n">
         <v>36</v>
       </c>
       <c r="Y48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
         <v>30</v>
@@ -6943,13 +6943,13 @@
         <v>50</v>
       </c>
       <c r="AB48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE48" t="n">
         <v>34</v>
@@ -6958,7 +6958,7 @@
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH48" t="n">
         <v>21</v>
@@ -6967,10 +6967,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK48" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL48" t="n">
         <v>44</v>
@@ -6979,10 +6979,10 @@
         <v>75</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="I49" t="n">
         <v>2.12</v>
@@ -7036,13 +7036,13 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q49" t="n">
         <v>1.5</v>
@@ -7069,10 +7069,10 @@
         <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
@@ -7081,22 +7081,22 @@
         <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF49" t="n">
         <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7117,7 +7117,7 @@
         <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="50">
@@ -7150,10 +7150,10 @@
         <v>2.14</v>
       </c>
       <c r="G50" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
         <v>4.1</v>
@@ -7162,7 +7162,7 @@
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7177,7 +7177,7 @@
         <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" t="n">
         <v>1.79</v>
@@ -7192,7 +7192,7 @@
         <v>1.5</v>
       </c>
       <c r="U50" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
         <v>1.01</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,13 +7306,13 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="O51" t="n">
         <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="Q51" t="n">
         <v>1.21</v>
@@ -7330,10 +7330,10 @@
         <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="W51" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7498,7 +7498,7 @@
         <v>11</v>
       </c>
       <c r="AG52" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH52" t="n">
         <v>980</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="O53" t="n">
         <v>1.2</v>
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="G54" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="H54" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I54" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.8</v>
+        <v>1.09</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
@@ -7711,7 +7711,7 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>2.76</v>
+        <v>1.89</v>
       </c>
       <c r="O54" t="n">
         <v>1.32</v>
@@ -7729,16 +7729,16 @@
         <v>2.92</v>
       </c>
       <c r="T54" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V54" t="n">
         <v>1.15</v>
       </c>
       <c r="W54" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7768,7 +7768,7 @@
         <v>980</v>
       </c>
       <c r="AG54" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH54" t="n">
         <v>980</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7978,7 +7978,7 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
         <v>3.4</v>
@@ -7993,10 +7993,10 @@
         <v>2.06</v>
       </c>
       <c r="R56" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T56" t="n">
         <v>1.96</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G57" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H57" t="n">
         <v>2.74</v>
@@ -8110,7 +8110,7 @@
         <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8143,7 +8143,7 @@
         <v>1.56</v>
       </c>
       <c r="W57" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X57" t="n">
         <v>23</v>
@@ -8233,10 +8233,10 @@
         <v>2.18</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I58" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J58" t="n">
         <v>3.6</v>
@@ -8248,88 +8248,88 @@
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>2.16</v>
+        <v>4.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q58" t="n">
         <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S58" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="T58" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="U58" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W58" t="n">
         <v>1.84</v>
       </c>
       <c r="X58" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA58" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG58" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI58" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ58" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK58" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL58" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8530,7 +8530,7 @@
         <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
@@ -8566,7 +8566,7 @@
         <v>17.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD60" t="n">
         <v>10</v>
@@ -8641,22 +8641,22 @@
         <v>1.84</v>
       </c>
       <c r="I61" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="J61" t="n">
         <v>3.55</v>
       </c>
       <c r="K61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -8668,16 +8668,16 @@
         <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S61" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T61" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="U61" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="V61" t="n">
         <v>1.98</v>
@@ -8686,49 +8686,49 @@
         <v>1.25</v>
       </c>
       <c r="X61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE61" t="n">
         <v>21</v>
       </c>
-      <c r="Y61" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>30</v>
-      </c>
       <c r="AF61" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AG61" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AH61" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AL61" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="62">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="G62" t="n">
         <v>6.2</v>
@@ -8776,7 +8776,7 @@
         <v>1.09</v>
       </c>
       <c r="I62" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J62" t="n">
         <v>3.7</v>
@@ -8815,7 +8815,7 @@
         <v>1.04</v>
       </c>
       <c r="V62" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W62" t="n">
         <v>1.19</v>
@@ -8935,7 +8935,7 @@
         <v>1.98</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R63" t="n">
         <v>1.37</v>
@@ -8944,13 +8944,13 @@
         <v>3.55</v>
       </c>
       <c r="T63" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U63" t="n">
         <v>2.16</v>
       </c>
       <c r="V63" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
         <v>1.82</v>
@@ -8971,7 +8971,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD63" t="n">
         <v>15</v>
@@ -8995,10 +8995,10 @@
         <v>27</v>
       </c>
       <c r="AK63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL63" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM63" t="n">
         <v>95</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K64" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,76 +9061,76 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q64" t="n">
         <v>1.58</v>
       </c>
       <c r="R64" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S64" t="n">
         <v>2.36</v>
       </c>
       <c r="T64" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="U64" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V64" t="n">
         <v>1.29</v>
       </c>
       <c r="W64" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z64" t="n">
         <v>1000</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB64" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL64" t="n">
         <v>1000</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,111 +9172,246 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="G65" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J65" t="n">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="K65" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>2.08</v>
+        <v>5.2</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P65" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Atletico Choloma</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G66" t="n">
+        <v>610</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I66" t="n">
+        <v>870</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K66" t="n">
+        <v>950</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O66" t="n">
         <v>1.24</v>
       </c>
-      <c r="S65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T65" t="n">
+      <c r="P66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V66" t="n">
         <v>1.01</v>
       </c>
-      <c r="U65" t="n">
+      <c r="W66" t="n">
         <v>1.01</v>
       </c>
-      <c r="V65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO65" t="n">
+      <c r="X66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO66" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.4</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.98</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -820,73 +820,73 @@
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.25</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,19 +895,19 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,91 +937,91 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="I4" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.77</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.12</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.17</v>
-      </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>1.34</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1498,88 +1498,88 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.3</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.46</v>
+        <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>2.86</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.07</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1780,13 +1780,13 @@
         <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="G11" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>9.6</v>
+        <v>1.09</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>5.9</v>
+        <v>1.09</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,34 +1906,34 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>1.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>2.82</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>1.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1942,49 +1942,49 @@
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>980</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>32</v>
+        <v>1.25</v>
       </c>
       <c r="I14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>16.5</v>
+        <v>1.18</v>
       </c>
       <c r="K14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>980</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>980</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
         <v>1.05</v>
       </c>
-      <c r="N15" t="n">
-        <v>3.65</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>1.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.74</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2581,22 +2581,22 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.84</v>
+        <v>1.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="P16" t="n">
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>1.09</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>980</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,25 +2758,25 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2785,10 +2785,10 @@
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>1.06</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,76 +2962,76 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>1.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
         <v>980</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
@@ -3043,16 +3043,16 @@
         <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>22</v>
       </c>
       <c r="AK19" t="n">
         <v>18</v>
@@ -3061,10 +3061,10 @@
         <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AO19" t="n">
         <v>38</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>980</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3124,76 +3124,76 @@
         <v>2.12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.68</v>
+        <v>1.69</v>
       </c>
       <c r="T20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.51</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>980</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,34 +3256,34 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>1.26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="P21" t="n">
-        <v>2.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>2.18</v>
+        <v>1.17</v>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.95</v>
+        <v>1.28</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="H22" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.97</v>
+        <v>980</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.3</v>
+        <v>1.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="R22" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>2.46</v>
+        <v>1.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
         <v>1.31</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>1.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="I24" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,25 +3661,25 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.6</v>
+        <v>1.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="P24" t="n">
-        <v>2.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="R24" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
@@ -3691,58 +3691,58 @@
         <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>1.98</v>
+        <v>1.38</v>
       </c>
       <c r="I25" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,64 +3907,64 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3973,43 +3973,43 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.84</v>
+        <v>1.09</v>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="I27" t="n">
-        <v>2.94</v>
+        <v>980</v>
       </c>
       <c r="J27" t="n">
-        <v>2.86</v>
+        <v>2.32</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.12</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4090,10 +4090,10 @@
         <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
-        <v>2.92</v>
+        <v>980</v>
       </c>
       <c r="H28" t="n">
-        <v>2.98</v>
+        <v>2.22</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="J28" t="n">
-        <v>2.92</v>
+        <v>1.92</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>980</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="T28" t="n">
         <v>1.04</v>
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="I29" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,70 +4336,70 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>2.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4447,109 +4447,109 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="G30" t="n">
+        <v>110</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>980</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>980</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.86</v>
       </c>
-      <c r="H30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="I31" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>2.48</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="T31" t="n">
         <v>1.04</v>
@@ -4630,10 +4630,10 @@
         <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="G32" t="n">
-        <v>1.76</v>
+        <v>110</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="I32" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
         <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.15</v>
       </c>
       <c r="W32" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,34 +4783,34 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="T33" t="n">
         <v>1.04</v>
@@ -4900,10 +4900,10 @@
         <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="G34" t="n">
-        <v>2.32</v>
+        <v>980</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,22 +5011,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S34" t="n">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="T34" t="n">
         <v>1.04</v>
@@ -5035,10 +5035,10 @@
         <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="G35" t="n">
-        <v>1.64</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I35" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>1.09</v>
       </c>
       <c r="K35" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>5.2</v>
+        <v>1.05</v>
       </c>
       <c r="O35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.18</v>
       </c>
-      <c r="P35" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.49</v>
-      </c>
       <c r="S35" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="T35" t="n">
         <v>1.04</v>
@@ -5176,55 +5176,55 @@
         <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,106 +5257,106 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="G36" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.42</v>
+        <v>1.24</v>
       </c>
       <c r="O36" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P36" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>1.07</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="T36" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
@@ -5395,16 +5395,16 @@
         <v>2.9</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H37" t="n">
-        <v>2.44</v>
+        <v>1.38</v>
       </c>
       <c r="I37" t="n">
         <v>2.62</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="K37" t="n">
         <v>3.65</v>
@@ -5416,88 +5416,88 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="O37" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="R37" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>3.6</v>
+        <v>1.07</v>
       </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U37" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="W37" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,52 +5527,52 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G38" t="n">
         <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K38" t="n">
         <v>3.15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="O38" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="R38" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S38" t="n">
-        <v>6.4</v>
+        <v>1.02</v>
       </c>
       <c r="T38" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.35</v>
@@ -5581,58 +5581,58 @@
         <v>1.62</v>
       </c>
       <c r="X38" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I39" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="n">
         <v>3.4</v>
@@ -5683,91 +5683,91 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>1.23</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="R39" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>4.4</v>
+        <v>1.09</v>
       </c>
       <c r="T39" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="V39" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
         <v>1.29</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.52</v>
+        <v>1.09</v>
       </c>
       <c r="G40" t="n">
-        <v>2.82</v>
+        <v>980</v>
       </c>
       <c r="H40" t="n">
-        <v>2.44</v>
+        <v>1.09</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>980</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>1.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,82 +5821,82 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S40" t="n">
         <v>1.15</v>
       </c>
-      <c r="P40" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.02</v>
-      </c>
       <c r="T40" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.54</v>
+        <v>1.09</v>
       </c>
       <c r="G41" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>2.42</v>
+        <v>1.09</v>
       </c>
       <c r="I41" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="K41" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,28 +5956,28 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R41" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="S41" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="T41" t="n">
-        <v>1.32</v>
+        <v>1.04</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V41" t="n">
         <v>1.01</v>
@@ -5986,52 +5986,52 @@
         <v>1.01</v>
       </c>
       <c r="X41" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
@@ -6070,16 +6070,16 @@
         <v>2.54</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="H42" t="n">
-        <v>2.78</v>
+        <v>1.41</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="K42" t="n">
         <v>3.45</v>
@@ -6091,82 +6091,82 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
       <c r="O42" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R42" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="T42" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U42" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W42" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6226,88 +6226,88 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>2.88</v>
+        <v>1.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="R43" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="T43" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="U43" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="W43" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
         <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98</v>
+        <v>980</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>1.05</v>
       </c>
       <c r="I44" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J44" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="K44" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,28 +6361,28 @@
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>6.2</v>
+        <v>1.05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="R44" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="S44" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
         <v>1.01</v>
@@ -6391,55 +6391,55 @@
         <v>1.01</v>
       </c>
       <c r="X44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>980</v>
       </c>
       <c r="H45" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="I45" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>4.8</v>
+        <v>1.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R45" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="T45" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6538,13 +6538,13 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
@@ -6553,7 +6553,7 @@
         <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6607,109 +6607,109 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="G46" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="I46" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>4.6</v>
+        <v>1.27</v>
       </c>
       <c r="K46" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L46" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>7.8</v>
+        <v>1.96</v>
       </c>
       <c r="O46" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>1.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="T46" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W46" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X46" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6745,109 +6745,109 @@
         <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="I47" t="n">
         <v>3.45</v>
       </c>
       <c r="J47" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R47" t="n">
         <v>1.25</v>
       </c>
-      <c r="M47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N47" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S47" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="T47" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="U47" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W47" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X47" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6877,112 +6877,112 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.62</v>
+        <v>1.09</v>
       </c>
       <c r="G48" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="H48" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="I48" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J48" t="n">
-        <v>3.9</v>
+        <v>1.09</v>
       </c>
       <c r="K48" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L48" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>2.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="S48" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="T48" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="U48" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W48" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="X48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.45</v>
+        <v>1.09</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="H49" t="n">
-        <v>1.96</v>
+        <v>1.09</v>
       </c>
       <c r="I49" t="n">
-        <v>2.12</v>
+        <v>980</v>
       </c>
       <c r="J49" t="n">
         <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,43 +7036,43 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>5.2</v>
+        <v>1.51</v>
       </c>
       <c r="O49" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="P49" t="n">
-        <v>2.34</v>
+        <v>1.51</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2</v>
+        <v>1.13</v>
       </c>
       <c r="T49" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
         <v>1.04</v>
       </c>
       <c r="V49" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="W49" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
@@ -7081,22 +7081,22 @@
         <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
         <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7117,7 +7117,7 @@
         <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G50" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I50" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,28 +7171,28 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="T50" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V50" t="n">
         <v>1.01</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="G51" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="H51" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="I51" t="n">
-        <v>1.91</v>
+        <v>980</v>
       </c>
       <c r="J51" t="n">
-        <v>3.6</v>
+        <v>1.09</v>
       </c>
       <c r="K51" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,22 +7306,22 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="O51" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="P51" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="Q51" t="n">
         <v>1.21</v>
       </c>
       <c r="R51" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>2.38</v>
+        <v>1.21</v>
       </c>
       <c r="T51" t="n">
         <v>1.04</v>
@@ -7330,10 +7330,10 @@
         <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="W51" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7417,106 +7417,106 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G52" t="n">
         <v>1.84</v>
       </c>
       <c r="H52" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I52" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J52" t="n">
         <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S52" t="n">
         <v>1.08</v>
       </c>
-      <c r="N52" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T52" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.93</v>
+        <v>1.04</v>
       </c>
       <c r="V52" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W52" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="X52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
         <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
         <v>1000</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="G53" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H53" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>3.3</v>
+        <v>1.09</v>
       </c>
       <c r="K53" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>1.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -7690,16 +7690,16 @@
         <v>1.62</v>
       </c>
       <c r="G54" t="n">
-        <v>1.95</v>
+        <v>980</v>
       </c>
       <c r="H54" t="n">
-        <v>4.8</v>
+        <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="J54" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
@@ -7711,85 +7711,85 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P54" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R54" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S54" t="n">
-        <v>2.92</v>
+        <v>1.15</v>
       </c>
       <c r="T54" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="W54" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
         <v>14.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,46 +7822,46 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="G55" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="H55" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="I55" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="J55" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="K55" t="n">
         <v>980</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R55" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S55" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="T55" t="n">
         <v>1.04</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="W55" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,109 +7957,109 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G56" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="H56" t="n">
-        <v>5.5</v>
+        <v>1.09</v>
       </c>
       <c r="I56" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="K56" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
       <c r="O56" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R56" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S56" t="n">
-        <v>3.65</v>
+        <v>1.06</v>
       </c>
       <c r="T56" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W56" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="X56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
         <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8101,7 +8101,7 @@
         <v>2.74</v>
       </c>
       <c r="I57" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J57" t="n">
         <v>3.8</v>
@@ -8110,7 +8110,7 @@
         <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8119,19 +8119,19 @@
         <v>5.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q57" t="n">
         <v>1.65</v>
       </c>
       <c r="R57" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T57" t="n">
         <v>1.57</v>
@@ -8140,10 +8140,10 @@
         <v>2.64</v>
       </c>
       <c r="V57" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X57" t="n">
         <v>23</v>
@@ -8158,7 +8158,7 @@
         <v>42</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC57" t="n">
         <v>8.800000000000001</v>
@@ -8182,19 +8182,19 @@
         <v>32</v>
       </c>
       <c r="AJ57" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="n">
         <v>24</v>
       </c>
       <c r="AL57" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM57" t="n">
         <v>60</v>
       </c>
       <c r="AN57" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO57" t="n">
         <v>17.5</v>
@@ -8227,109 +8227,109 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="G58" t="n">
-        <v>2.18</v>
+        <v>980</v>
       </c>
       <c r="H58" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I58" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J58" t="n">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="K58" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S58" t="n">
         <v>1.05</v>
       </c>
-      <c r="N58" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2.9</v>
-      </c>
       <c r="T58" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="U58" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W58" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="X58" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y58" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA58" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE58" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL58" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8362,25 +8362,25 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="H59" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="J59" t="n">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
-        <v>4.7</v>
+        <v>980</v>
       </c>
       <c r="L59" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
@@ -8395,13 +8395,13 @@
         <v>1.36</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="R59" t="n">
         <v>1.18</v>
       </c>
       <c r="S59" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W59" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8500,7 +8500,7 @@
         <v>3.95</v>
       </c>
       <c r="G60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -8515,34 +8515,34 @@
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>4.6</v>
+        <v>2.18</v>
       </c>
       <c r="O60" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="P60" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>2.9</v>
+        <v>1.74</v>
       </c>
       <c r="T60" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="U60" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="V60" t="n">
         <v>1.96</v>
@@ -8560,10 +8560,10 @@
         <v>13.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB60" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC60" t="n">
         <v>8.800000000000001</v>
@@ -8596,13 +8596,13 @@
         <v>48</v>
       </c>
       <c r="AM60" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN60" t="n">
         <v>38</v>
       </c>
       <c r="AO60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -8632,103 +8632,103 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H61" t="n">
-        <v>1.84</v>
+        <v>1.22</v>
       </c>
       <c r="I61" t="n">
-        <v>2.02</v>
+        <v>980</v>
       </c>
       <c r="J61" t="n">
-        <v>3.55</v>
+        <v>1.2</v>
       </c>
       <c r="K61" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="O61" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P61" t="n">
-        <v>1.94</v>
+        <v>1.24</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="R61" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="S61" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U61" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V61" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="W61" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X61" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y61" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z61" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA61" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC61" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD61" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG61" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL61" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G62" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I62" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="J62" t="n">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="K62" t="n">
         <v>980</v>
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.58</v>
+        <v>1.25</v>
       </c>
       <c r="O62" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P62" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R62" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S62" t="n">
-        <v>2.92</v>
+        <v>1.02</v>
       </c>
       <c r="T62" t="n">
         <v>1.04</v>
@@ -8815,10 +8815,10 @@
         <v>1.04</v>
       </c>
       <c r="V62" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="W62" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8920,19 +8920,19 @@
         <v>3.7</v>
       </c>
       <c r="L63" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O63" t="n">
         <v>1.32</v>
       </c>
       <c r="P63" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q63" t="n">
         <v>1.98</v>
@@ -8944,22 +8944,22 @@
         <v>3.55</v>
       </c>
       <c r="T63" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U63" t="n">
         <v>2.16</v>
       </c>
       <c r="V63" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W63" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="X63" t="n">
         <v>13.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z63" t="n">
         <v>26</v>
@@ -8968,7 +8968,7 @@
         <v>70</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC63" t="n">
         <v>7.8</v>
@@ -8986,7 +8986,7 @@
         <v>10.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI63" t="n">
         <v>55</v>
@@ -8998,7 +8998,7 @@
         <v>23</v>
       </c>
       <c r="AL63" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM63" t="n">
         <v>95</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.78</v>
+        <v>1.29</v>
       </c>
       <c r="G64" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H64" t="n">
-        <v>3.95</v>
+        <v>1.04</v>
       </c>
       <c r="I64" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="K64" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,76 +9061,76 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R64" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="S64" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="T64" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="U64" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V64" t="n">
         <v>1.29</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X64" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z64" t="n">
         <v>1000</v>
       </c>
       <c r="AA64" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK64" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL64" t="n">
         <v>1000</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="H65" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="I65" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J65" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="K65" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,34 +9196,34 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="O65" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R65" t="n">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="S65" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="T65" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U65" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="V65" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W65" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9331,22 +9331,22 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O66" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="T66" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,91 +937,91 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.35</v>
+        <v>1.98</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.05</v>
+        <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.08</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.12</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>1.34</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,79 +1501,79 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="H10" t="n">
         <v>1.04</v>
@@ -1780,13 +1780,13 @@
         <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H11" t="n">
-        <v>1.09</v>
+        <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>1.08</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,31 +1960,31 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,16 +2020,16 @@
         <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>980</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
         <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1.11</v>
       </c>
       <c r="H14" t="n">
         <v>1.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J14" t="n">
-        <v>1.18</v>
+        <v>14.5</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,91 +2422,91 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.05</v>
       </c>
-      <c r="G15" t="n">
-        <v>980</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I15" t="n">
-        <v>980</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K15" t="n">
-        <v>980</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
       <c r="N15" t="n">
-        <v>1.05</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>1.05</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.33</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>1.33</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.05</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,25 +2623,25 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.09</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>980</v>
+        <v>2.94</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.25</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
         <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
         <v>1.64</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>1.06</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
         <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
         <v>1.95</v>
@@ -2971,88 +2971,88 @@
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
         <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
         <v>18</v>
@@ -3061,10 +3061,10 @@
         <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO19" t="n">
         <v>38</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,40 +3121,40 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,34 +3163,34 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="G21" t="n">
-        <v>980</v>
+        <v>2.06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>1000</v>
@@ -3256,40 +3256,40 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>1.17</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="n">
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3298,22 +3298,22 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3322,10 +3322,10 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,103 +3367,103 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.28</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
-        <v>980</v>
+        <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>1.26</v>
+        <v>5.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.12</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="n">
-        <v>1.12</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
         <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.05</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,67 +3661,67 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB24" t="n">
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>2.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,58 +3907,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="H26" t="n">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.05</v>
+        <v>2.58</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
         <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4042,100 +4042,100 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>980</v>
+        <v>2.76</v>
       </c>
       <c r="J27" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>2.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,10 +4144,10 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="G28" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="I28" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.92</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>1.05</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,100 +4312,100 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="H29" t="n">
-        <v>1.09</v>
+        <v>2.16</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>1.05</v>
+        <v>3.95</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -4438,67 +4438,67 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="G30" t="n">
-        <v>110</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="G31" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T31" t="n">
         <v>1.04</v>
@@ -4630,10 +4630,10 @@
         <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G32" t="n">
-        <v>110</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="I32" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
         <v>1.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
         <v>1.15</v>
       </c>
       <c r="W32" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,34 +4783,34 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4852,58 +4852,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.26</v>
+        <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U33" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4978,67 +4978,67 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="G34" t="n">
-        <v>980</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="I34" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="J34" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R34" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5122,52 +5122,52 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="H35" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S35" t="n">
         <v>1.01</v>
       </c>
-      <c r="N35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.05</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U35" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
         <v>1.01</v>
@@ -5179,7 +5179,7 @@
         <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,37 +5188,37 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H36" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,76 +5281,76 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="O36" t="n">
         <v>1.08</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.07</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S36" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="W36" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -5392,91 +5392,91 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H37" t="n">
-        <v>1.38</v>
+        <v>2.46</v>
       </c>
       <c r="I37" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.02</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>1.07</v>
+        <v>3.45</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W37" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF37" t="n">
         <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5527,64 +5527,64 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="K38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N38" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="R38" t="n">
         <v>1.16</v>
       </c>
       <c r="S38" t="n">
-        <v>1.02</v>
+        <v>6.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V38" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5593,13 +5593,13 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5662,79 +5662,79 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="I39" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="J39" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.23</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U39" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
@@ -5743,7 +5743,7 @@
         <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5755,7 +5755,7 @@
         <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.09</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>980</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>1.09</v>
+        <v>2.28</v>
       </c>
       <c r="I40" t="n">
-        <v>980</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
         <v>980</v>
@@ -5821,40 +5821,40 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="O40" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="S40" t="n">
-        <v>1.15</v>
+        <v>2.12</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,13 +5863,13 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC40" t="n">
         <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5881,7 +5881,7 @@
         <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.09</v>
+        <v>1.48</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
         <v>1000</v>
@@ -5956,22 +5956,22 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P41" t="n">
-        <v>1.24</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R41" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="T41" t="n">
         <v>1.04</v>
@@ -6070,16 +6070,16 @@
         <v>2.54</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="H42" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.42</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
         <v>3.45</v>
@@ -6091,40 +6091,40 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="P42" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S42" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V42" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6133,10 +6133,10 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09</v>
+        <v>1.79</v>
       </c>
       <c r="I43" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>1.05</v>
+        <v>5.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>1.24</v>
+        <v>2.52</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R43" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="S43" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="W43" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6262,34 +6262,34 @@
         <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF43" t="n">
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="44">
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="G44" t="n">
-        <v>980</v>
+        <v>1.97</v>
       </c>
       <c r="H44" t="n">
-        <v>1.05</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L44" t="n">
         <v>1.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>980</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.01</v>
       </c>
       <c r="M44" t="n">
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>1.05</v>
+        <v>7.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="R44" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="S44" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="T44" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="U44" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6403,25 +6403,25 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6430,7 +6430,7 @@
         <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL44" t="n">
         <v>1000</v>
@@ -6439,10 +6439,10 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -6472,64 +6472,64 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.32</v>
+        <v>2.16</v>
       </c>
       <c r="G45" t="n">
-        <v>980</v>
+        <v>2.38</v>
       </c>
       <c r="H45" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="J45" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>1.05</v>
+        <v>4.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P45" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z45" t="n">
         <v>1000</v>
@@ -6538,25 +6538,25 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
@@ -6565,7 +6565,7 @@
         <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL45" t="n">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6607,58 +6607,58 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="G46" t="n">
-        <v>1000</v>
+        <v>1.98</v>
       </c>
       <c r="H46" t="n">
-        <v>1.09</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J46" t="n">
-        <v>1.27</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
+        <v>7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.96</v>
       </c>
-      <c r="O46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S46" t="n">
-        <v>1.31</v>
+        <v>1.87</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W46" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6673,25 +6673,25 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE46" t="n">
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
@@ -6700,19 +6700,19 @@
         <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,88 +6766,88 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>1.26</v>
+        <v>4.7</v>
       </c>
       <c r="O47" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>1.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.09</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S47" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V47" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.09</v>
+        <v>1.57</v>
       </c>
       <c r="G48" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H48" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="I48" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="J48" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K48" t="n">
         <v>1000</v>
@@ -6901,28 +6901,28 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>1.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R48" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="S48" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="U48" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V48" t="n">
         <v>1.01</v>
@@ -6931,49 +6931,49 @@
         <v>1.01</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="n">
         <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="G49" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="H49" t="n">
-        <v>1.09</v>
+        <v>1.78</v>
       </c>
       <c r="I49" t="n">
-        <v>980</v>
+        <v>2.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.9</v>
@@ -7036,31 +7036,31 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R49" t="n">
         <v>1.51</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S49" t="n">
-        <v>1.13</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="U49" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V49" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="W49" t="n">
         <v>1.29</v>
@@ -7069,34 +7069,34 @@
         <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7117,7 +7117,7 @@
         <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -7147,46 +7147,46 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="G50" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="H50" t="n">
-        <v>1.04</v>
+        <v>2.92</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S50" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="T50" t="n">
         <v>1.04</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="H51" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="I51" t="n">
-        <v>980</v>
+        <v>1.92</v>
       </c>
       <c r="J51" t="n">
-        <v>1.09</v>
+        <v>3.9</v>
       </c>
       <c r="K51" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,34 +7306,34 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="O51" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="R51" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S51" t="n">
-        <v>1.21</v>
+        <v>2.4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U51" t="n">
         <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="W51" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7342,13 +7342,13 @@
         <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC51" t="n">
         <v>1000</v>
@@ -7357,16 +7357,16 @@
         <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="52">
@@ -7417,61 +7417,61 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="G52" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="H52" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K52" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>1.05</v>
+        <v>3.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R52" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="S52" t="n">
-        <v>1.08</v>
+        <v>3.7</v>
       </c>
       <c r="T52" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V52" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y52" t="n">
         <v>1000</v>
@@ -7483,10 +7483,10 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7495,7 +7495,7 @@
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG52" t="n">
         <v>10</v>
@@ -7507,7 +7507,7 @@
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK52" t="n">
         <v>1000</v>
@@ -7519,7 +7519,7 @@
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="G53" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J53" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7576,10 +7576,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G54" t="n">
-        <v>980</v>
+        <v>1.93</v>
       </c>
       <c r="H54" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="I54" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="J54" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
@@ -7711,40 +7711,40 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>1.05</v>
+        <v>2.78</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S54" t="n">
-        <v>1.15</v>
+        <v>2.98</v>
       </c>
       <c r="T54" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V54" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W54" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z54" t="n">
         <v>1000</v>
@@ -7753,10 +7753,10 @@
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD54" t="n">
         <v>1000</v>
@@ -7765,10 +7765,10 @@
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH54" t="n">
         <v>1000</v>
@@ -7777,10 +7777,10 @@
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL54" t="n">
         <v>1000</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,46 +7822,46 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="G55" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I55" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="J55" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
         <v>980</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.05</v>
+        <v>2.54</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R55" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S55" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="T55" t="n">
         <v>1.04</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W55" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="G56" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="H56" t="n">
-        <v>1.09</v>
+        <v>5.4</v>
       </c>
       <c r="I56" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,34 +7981,34 @@
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R56" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>1.06</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U56" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V56" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8023,13 +8023,13 @@
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
@@ -8038,7 +8038,7 @@
         <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
         <v>1000</v>
@@ -8050,7 +8050,7 @@
         <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL56" t="n">
         <v>1000</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="G57" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H57" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I57" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="J57" t="n">
         <v>3.8</v>
@@ -8110,7 +8110,7 @@
         <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8119,58 +8119,58 @@
         <v>5.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P57" t="n">
         <v>2.42</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R57" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S57" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T57" t="n">
         <v>1.57</v>
       </c>
       <c r="U57" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V57" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W57" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y57" t="n">
         <v>16</v>
       </c>
       <c r="Z57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA57" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB57" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE57" t="n">
         <v>26</v>
       </c>
       <c r="AF57" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
@@ -8182,19 +8182,19 @@
         <v>32</v>
       </c>
       <c r="AJ57" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK57" t="n">
         <v>24</v>
       </c>
       <c r="AL57" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM57" t="n">
         <v>60</v>
       </c>
       <c r="AN57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO57" t="n">
         <v>17.5</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="G58" t="n">
-        <v>980</v>
+        <v>2.22</v>
       </c>
       <c r="H58" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I58" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="K58" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8251,85 +8251,85 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="O58" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="P58" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="S58" t="n">
-        <v>1.05</v>
+        <v>2.88</v>
       </c>
       <c r="T58" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U58" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="V58" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W58" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA58" t="n">
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE58" t="n">
         <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
         <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8362,25 +8362,25 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="G59" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I59" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="J59" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="K59" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
@@ -8392,16 +8392,16 @@
         <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R59" t="n">
         <v>1.18</v>
       </c>
       <c r="S59" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W59" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8500,10 +8500,10 @@
         <v>3.95</v>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I60" t="n">
         <v>2.04</v>
@@ -8515,43 +8515,43 @@
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>2.18</v>
+        <v>4.7</v>
       </c>
       <c r="O60" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>1.74</v>
+        <v>2.9</v>
       </c>
       <c r="T60" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U60" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V60" t="n">
         <v>1.96</v>
       </c>
       <c r="W60" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y60" t="n">
         <v>11.5</v>
@@ -8563,7 +8563,7 @@
         <v>24</v>
       </c>
       <c r="AB60" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC60" t="n">
         <v>8.800000000000001</v>
@@ -8578,7 +8578,7 @@
         <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH60" t="n">
         <v>16.5</v>
@@ -8587,16 +8587,16 @@
         <v>30</v>
       </c>
       <c r="AJ60" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK60" t="n">
         <v>44</v>
       </c>
       <c r="AL60" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM60" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN60" t="n">
         <v>38</v>
@@ -8632,94 +8632,94 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="G61" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="I61" t="n">
-        <v>980</v>
+        <v>2.22</v>
       </c>
       <c r="J61" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>1.05</v>
+        <v>2.78</v>
       </c>
       <c r="O61" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R61" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S61" t="n">
-        <v>1.05</v>
+        <v>2.86</v>
       </c>
       <c r="T61" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U61" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V61" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="W61" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH61" t="n">
         <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="G62" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H62" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="I62" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J62" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="K62" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="O62" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P62" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R62" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S62" t="n">
-        <v>1.02</v>
+        <v>2.94</v>
       </c>
       <c r="T62" t="n">
         <v>1.04</v>
@@ -8818,7 +8818,7 @@
         <v>1.01</v>
       </c>
       <c r="W62" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,82 +8902,82 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J63" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K63" t="n">
         <v>3.7</v>
       </c>
       <c r="L63" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O63" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q63" t="n">
         <v>1.98</v>
       </c>
       <c r="R63" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S63" t="n">
         <v>3.55</v>
       </c>
       <c r="T63" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U63" t="n">
         <v>2.16</v>
       </c>
       <c r="V63" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W63" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="X63" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y63" t="n">
         <v>14.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA63" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD63" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF63" t="n">
         <v>13.5</v>
@@ -8992,19 +8992,19 @@
         <v>55</v>
       </c>
       <c r="AJ63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK63" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL63" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM63" t="n">
         <v>95</v>
       </c>
       <c r="AN63" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO63" t="n">
         <v>44</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="G64" t="n">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="H64" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I64" t="n">
         <v>1000</v>
       </c>
       <c r="J64" t="n">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,40 +9061,40 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>1.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R64" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S64" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="T64" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="U64" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z64" t="n">
         <v>1000</v>
@@ -9103,43 +9103,43 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD64" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="G65" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="H65" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I65" t="n">
         <v>1000</v>
       </c>
       <c r="J65" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="K65" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,34 +9196,34 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P65" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R65" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="S65" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="T65" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="U65" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V65" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W65" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9334,19 +9334,19 @@
         <v>1.32</v>
       </c>
       <c r="O66" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P66" t="n">
         <v>1.32</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="T66" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -841,7 +841,7 @@
         <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.63</v>
@@ -853,7 +853,7 @@
         <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
@@ -1078,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
         <v>1.3</v>
@@ -1216,7 +1216,7 @@
         <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1228,10 +1228,10 @@
         <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1348,10 +1348,10 @@
         <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="J7" t="n">
         <v>2.72</v>
@@ -1960,7 +1960,7 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.71</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2425,13 +2425,13 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>2.64</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
@@ -2473,7 +2473,7 @@
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2497,7 +2497,7 @@
         <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2725,7 +2725,7 @@
         <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
@@ -2836,7 +2836,7 @@
         <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
@@ -2857,7 +2857,7 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
         <v>1.67</v>
@@ -2866,7 +2866,7 @@
         <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.75</v>
@@ -2905,7 +2905,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>9.6</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3241,7 +3241,7 @@
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.65</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>2.06</v>
@@ -3379,7 +3379,7 @@
         <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3391,13 +3391,13 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
         <v>1.61</v>
@@ -3406,7 +3406,7 @@
         <v>1.58</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.54</v>
@@ -3421,46 +3421,46 @@
         <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>30</v>
       </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ22" t="n">
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
         <v>48</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -3640,7 +3640,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H24" t="n">
         <v>1.46</v>
@@ -3667,16 +3667,16 @@
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S24" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.74</v>
@@ -3805,7 +3805,7 @@
         <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
         <v>1.99</v>
@@ -3931,16 +3931,16 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
         <v>1.22</v>
@@ -4081,13 +4081,13 @@
         <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
         <v>1.56</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G28" t="n">
         <v>3.1</v>
@@ -4345,19 +4345,19 @@
         <v>2.02</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
         <v>1.4</v>
       </c>
       <c r="S29" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
         <v>1.66</v>
@@ -4477,7 +4477,7 @@
         <v>1.07</v>
       </c>
       <c r="P30" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
         <v>2.1</v>
@@ -4615,7 +4615,7 @@
         <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
         <v>1.25</v>
@@ -4747,10 +4747,10 @@
         <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
         <v>1.23</v>
@@ -4858,7 +4858,7 @@
         <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
         <v>4.4</v>
@@ -4870,10 +4870,10 @@
         <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
         <v>3.25</v>
@@ -4885,13 +4885,13 @@
         <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="T33" t="n">
         <v>1.81</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4933,7 +4933,7 @@
         <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G35" t="n">
         <v>1.68</v>
@@ -5161,7 +5161,7 @@
         <v>1.53</v>
       </c>
       <c r="S35" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="T35" t="n">
         <v>1.63</v>
@@ -5413,7 +5413,7 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
         <v>3.25</v>
@@ -5428,10 +5428,10 @@
         <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T37" t="n">
         <v>1.81</v>
@@ -5446,46 +5446,46 @@
         <v>1.42</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
       </c>
       <c r="Z37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB37" t="n">
         <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
@@ -5494,10 +5494,10 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -5536,7 +5536,7 @@
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
         <v>2.94</v>
@@ -5584,7 +5584,7 @@
         <v>8.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G39" t="n">
         <v>3.55</v>
@@ -5683,7 +5683,7 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
         <v>2.8</v>
@@ -5698,16 +5698,16 @@
         <v>2.36</v>
       </c>
       <c r="R39" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
         <v>1.96</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V39" t="n">
         <v>1.6</v>
@@ -6088,22 +6088,22 @@
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
         <v>2.96</v>
       </c>
       <c r="O42" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q42" t="n">
         <v>2.16</v>
       </c>
       <c r="R42" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S42" t="n">
         <v>4.2</v>
@@ -6112,10 +6112,10 @@
         <v>1.79</v>
       </c>
       <c r="U42" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="W42" t="n">
         <v>1.51</v>
@@ -6211,13 +6211,13 @@
         <v>1.79</v>
       </c>
       <c r="I43" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J43" t="n">
         <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.23</v>
@@ -6232,13 +6232,13 @@
         <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R43" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
         <v>2.28</v>
@@ -6247,10 +6247,10 @@
         <v>1.55</v>
       </c>
       <c r="U43" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V43" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W43" t="n">
         <v>1.23</v>
@@ -6259,13 +6259,13 @@
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z43" t="n">
         <v>17.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="n">
         <v>28</v>
@@ -6274,7 +6274,7 @@
         <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE43" t="n">
         <v>21</v>
@@ -6370,13 +6370,13 @@
         <v>3.15</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R44" t="n">
         <v>1.88</v>
       </c>
       <c r="S44" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T44" t="n">
         <v>1.44</v>
@@ -6511,7 +6511,7 @@
         <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T45" t="n">
         <v>1.58</v>
@@ -6610,7 +6610,7 @@
         <v>1.84</v>
       </c>
       <c r="G46" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
@@ -6658,7 +6658,7 @@
         <v>1.33</v>
       </c>
       <c r="W46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6745,7 +6745,7 @@
         <v>2.12</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
@@ -6766,10 +6766,10 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P47" t="n">
         <v>2.34</v>
@@ -6778,76 +6778,76 @@
         <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S47" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="T47" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U47" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="V47" t="n">
         <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y47" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL47" t="n">
         <v>36</v>
       </c>
-      <c r="AA47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>40</v>
-      </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -6901,7 +6901,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="O48" t="n">
         <v>1.17</v>
@@ -7021,7 +7021,7 @@
         <v>1.78</v>
       </c>
       <c r="I49" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J49" t="n">
         <v>3.9</v>
@@ -7060,7 +7060,7 @@
         <v>2.26</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W49" t="n">
         <v>1.29</v>
@@ -7150,7 +7150,7 @@
         <v>1.78</v>
       </c>
       <c r="G50" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H50" t="n">
         <v>2.92</v>
@@ -7159,7 +7159,7 @@
         <v>4.1</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
         <v>5.2</v>
@@ -7285,7 +7285,7 @@
         <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>1.75</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G52" t="n">
         <v>1.79</v>
@@ -7432,7 +7432,7 @@
         <v>3.7</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L52" t="n">
         <v>1.43</v>
@@ -7453,7 +7453,7 @@
         <v>2.04</v>
       </c>
       <c r="R52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S52" t="n">
         <v>3.7</v>
@@ -7855,7 +7855,7 @@
         <v>1.77</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R55" t="n">
         <v>1.25</v>
@@ -7873,7 +7873,7 @@
         <v>1.41</v>
       </c>
       <c r="W55" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G56" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H56" t="n">
         <v>5.4</v>
@@ -7999,7 +7999,7 @@
         <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U56" t="n">
         <v>1.94</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8023,22 +8023,22 @@
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH56" t="n">
         <v>1000</v>
@@ -8050,7 +8050,7 @@
         <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
         <v>1000</v>
@@ -8059,7 +8059,7 @@
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8278,7 +8278,7 @@
         <v>1.28</v>
       </c>
       <c r="W58" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8365,7 +8365,7 @@
         <v>2.8</v>
       </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H59" t="n">
         <v>2.66</v>
@@ -8512,7 +8512,7 @@
         <v>3.9</v>
       </c>
       <c r="K60" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>1.35</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G61" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H61" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I61" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J61" t="n">
         <v>3.3</v>
       </c>
       <c r="K61" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L61" t="n">
         <v>1.3</v>
@@ -8662,7 +8662,7 @@
         <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q61" t="n">
         <v>1.74</v>
@@ -8680,10 +8680,10 @@
         <v>1.98</v>
       </c>
       <c r="V61" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W61" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8905,13 +8905,13 @@
         <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H63" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I63" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.95</v>
       </c>
       <c r="J63" t="n">
         <v>3.65</v>
@@ -8953,7 +8953,7 @@
         <v>1.34</v>
       </c>
       <c r="W63" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8962,22 +8962,22 @@
         <v>14.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA63" t="n">
         <v>75</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC63" t="n">
         <v>8</v>
       </c>
       <c r="AD63" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE63" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF63" t="n">
         <v>13.5</v>
@@ -9070,7 +9070,7 @@
         <v>2.42</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R64" t="n">
         <v>1.41</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="G65" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="H65" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>4.2</v>
       </c>
       <c r="K65" t="n">
-        <v>7.4</v>
+        <v>500</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.89</v>
       </c>
       <c r="V65" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W65" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
         <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
@@ -718,7 +718,7 @@
         <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -853,7 +853,7 @@
         <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
@@ -943,7 +943,7 @@
         <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I4" t="n">
         <v>2.58</v>
@@ -1216,7 +1216,7 @@
         <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1237,7 +1237,7 @@
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
         <v>2.58</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
         <v>1.91</v>
@@ -1354,10 +1354,10 @@
         <v>2.56</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
         <v>2.12</v>
@@ -1492,7 +1492,7 @@
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>2.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
@@ -2155,7 +2155,7 @@
         <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2473,7 +2473,7 @@
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
@@ -2569,7 +2569,7 @@
         <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2608,7 +2608,7 @@
         <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2725,7 +2725,7 @@
         <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
@@ -2860,10 +2860,10 @@
         <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
         <v>2.7</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -2995,7 +2995,7 @@
         <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
@@ -3010,10 +3010,10 @@
         <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3049,7 +3049,7 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ19" t="n">
         <v>22</v>
@@ -3136,7 +3136,7 @@
         <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3409,7 +3409,7 @@
         <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U22" t="n">
         <v>2.56</v>
@@ -3421,7 +3421,7 @@
         <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y22" t="n">
         <v>14.5</v>
@@ -3430,16 +3430,16 @@
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE22" t="n">
         <v>21</v>
@@ -3451,7 +3451,7 @@
         <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>30</v>
@@ -3649,10 +3649,10 @@
         <v>1.49</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G25" t="n">
         <v>4.7</v>
@@ -3781,7 +3781,7 @@
         <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
         <v>2.98</v>
@@ -3910,7 +3910,7 @@
         <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3943,7 +3943,7 @@
         <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
         <v>2.98</v>
@@ -3958,7 +3958,7 @@
         <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4072,16 +4072,16 @@
         <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
         <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
         <v>1.91</v>
@@ -4117,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>26</v>
@@ -4135,7 +4135,7 @@
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4207,7 +4207,7 @@
         <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
         <v>2.24</v>
@@ -4360,7 +4360,7 @@
         <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W29" t="n">
         <v>1.36</v>
@@ -4369,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
         <v>18.5</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -4402,13 +4402,13 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="n">
         <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G32" t="n">
         <v>1.86</v>
@@ -4885,7 +4885,7 @@
         <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
@@ -5158,7 +5158,7 @@
         <v>1.49</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S35" t="n">
         <v>2.14</v>
@@ -5461,7 +5461,7 @@
         <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>15</v>
@@ -5470,7 +5470,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
         <v>17</v>
@@ -5482,7 +5482,7 @@
         <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK37" t="n">
         <v>48</v>
@@ -5539,7 +5539,7 @@
         <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K38" t="n">
         <v>3.1</v>
@@ -5599,7 +5599,7 @@
         <v>7.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="G41" t="n">
         <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.48</v>
+        <v>2.12</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -6259,7 +6259,7 @@
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
         <v>17.5</v>
@@ -6370,7 +6370,7 @@
         <v>3.15</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R44" t="n">
         <v>1.88</v>
@@ -6751,7 +6751,7 @@
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J47" t="n">
         <v>3.8</v>
@@ -6775,13 +6775,13 @@
         <v>2.34</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R47" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S47" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T47" t="n">
         <v>1.58</v>
@@ -6805,7 +6805,7 @@
         <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB47" t="n">
         <v>16.5</v>
@@ -6979,7 +6979,7 @@
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7333,7 +7333,7 @@
         <v>2.08</v>
       </c>
       <c r="W51" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G52" t="n">
         <v>1.79</v>
@@ -7465,7 +7465,7 @@
         <v>1.92</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W52" t="n">
         <v>2.26</v>
@@ -7717,10 +7717,10 @@
         <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R54" t="n">
         <v>1.3</v>
@@ -7969,7 +7969,7 @@
         <v>6.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K56" t="n">
         <v>4</v>
@@ -7978,7 +7978,7 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
         <v>3.45</v>
@@ -7987,10 +7987,10 @@
         <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R56" t="n">
         <v>1.32</v>
@@ -7999,7 +7999,7 @@
         <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U56" t="n">
         <v>1.94</v>
@@ -8011,7 +8011,7 @@
         <v>2.22</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y56" t="n">
         <v>1000</v>
@@ -8059,7 +8059,7 @@
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8116,7 +8116,7 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O57" t="n">
         <v>1.21</v>
@@ -8128,10 +8128,10 @@
         <v>1.68</v>
       </c>
       <c r="R57" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T57" t="n">
         <v>1.57</v>
@@ -8251,7 +8251,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O58" t="n">
         <v>1.24</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G60" t="n">
         <v>3.95</v>
       </c>
-      <c r="G60" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H60" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I60" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="J60" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L60" t="n">
         <v>1.35</v>
@@ -8527,7 +8527,7 @@
         <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q60" t="n">
         <v>1.76</v>
@@ -8545,7 +8545,7 @@
         <v>2.36</v>
       </c>
       <c r="V60" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -8578,7 +8578,7 @@
         <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH60" t="n">
         <v>16.5</v>
@@ -8635,13 +8635,13 @@
         <v>3.75</v>
       </c>
       <c r="G61" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
         <v>1.77</v>
       </c>
       <c r="I61" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J61" t="n">
         <v>3.3</v>
@@ -8674,13 +8674,13 @@
         <v>2.86</v>
       </c>
       <c r="T61" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U61" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W61" t="n">
         <v>1.28</v>
@@ -8905,13 +8905,13 @@
         <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H63" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J63" t="n">
         <v>3.65</v>
@@ -8929,7 +8929,7 @@
         <v>3.85</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P63" t="n">
         <v>1.98</v>
@@ -8953,7 +8953,7 @@
         <v>1.34</v>
       </c>
       <c r="W63" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8962,7 +8962,7 @@
         <v>14.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA63" t="n">
         <v>75</v>
@@ -8974,10 +8974,10 @@
         <v>8</v>
       </c>
       <c r="AD63" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF63" t="n">
         <v>13.5</v>
@@ -9073,7 +9073,7 @@
         <v>1.51</v>
       </c>
       <c r="R64" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S64" t="n">
         <v>2.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -673,7 +673,7 @@
         <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
@@ -808,7 +808,7 @@
         <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
         <v>2.44</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="G4" t="n">
         <v>4.2</v>
@@ -964,7 +964,7 @@
         <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.81</v>
@@ -1078,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
         <v>1.3</v>
@@ -1237,7 +1237,7 @@
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
         <v>2.58</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I7" t="n">
         <v>2.56</v>
@@ -1357,7 +1357,7 @@
         <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2425,16 +2425,16 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
         <v>2.64</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2455,7 +2455,7 @@
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2473,7 +2473,7 @@
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2497,7 +2497,7 @@
         <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2869,7 +2869,7 @@
         <v>2.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
@@ -3016,7 +3016,7 @@
         <v>2.08</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>22</v>
@@ -3049,7 +3049,7 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
         <v>22</v>
@@ -3061,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
         <v>9.800000000000001</v>
@@ -3103,7 +3103,7 @@
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>4.9</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
         <v>5.5</v>
@@ -3247,7 +3247,7 @@
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3283,7 +3283,7 @@
         <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I22" t="n">
         <v>2.16</v>
@@ -3382,7 +3382,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.29</v>
@@ -3403,7 +3403,7 @@
         <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
         <v>2.5</v>
@@ -3415,7 +3415,7 @@
         <v>2.56</v>
       </c>
       <c r="V22" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W22" t="n">
         <v>1.33</v>
@@ -3673,10 +3673,10 @@
         <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
         <v>1.74</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
         <v>2.2</v>
@@ -4048,7 +4048,7 @@
         <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I27" t="n">
         <v>2.76</v>
@@ -4084,13 +4084,13 @@
         <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
         <v>1.39</v>
@@ -4321,7 +4321,7 @@
         <v>2.16</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
@@ -4345,7 +4345,7 @@
         <v>2.02</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
         <v>1.4</v>
@@ -4354,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
         <v>1.71</v>
@@ -4405,7 +4405,7 @@
         <v>75</v>
       </c>
       <c r="AK29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
@@ -4453,7 +4453,7 @@
         <v>2.52</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>5.1</v>
@@ -4462,7 +4462,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L30" t="n">
         <v>1.4</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O32" t="n">
         <v>1.35</v>
@@ -4885,13 +4885,13 @@
         <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.81</v>
@@ -5158,10 +5158,10 @@
         <v>1.49</v>
       </c>
       <c r="R35" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S35" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T35" t="n">
         <v>1.63</v>
@@ -5431,7 +5431,7 @@
         <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="T37" t="n">
         <v>1.81</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G39" t="n">
         <v>3.55</v>
@@ -5731,7 +5731,7 @@
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>12.5</v>
@@ -5755,7 +5755,7 @@
         <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -6091,7 +6091,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O42" t="n">
         <v>1.35</v>
@@ -6208,10 +6208,10 @@
         <v>4.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I43" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J43" t="n">
         <v>4.1</v>
@@ -6235,10 +6235,10 @@
         <v>2.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="R43" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
         <v>2.28</v>
@@ -6259,7 +6259,7 @@
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z43" t="n">
         <v>17.5</v>
@@ -6343,7 +6343,7 @@
         <v>1.97</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I44" t="n">
         <v>4.2</v>
@@ -6376,7 +6376,7 @@
         <v>1.88</v>
       </c>
       <c r="S44" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T44" t="n">
         <v>1.44</v>
@@ -6532,7 +6532,7 @@
         <v>21</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
@@ -6547,7 +6547,7 @@
         <v>17.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="n">
         <v>21</v>
@@ -6562,7 +6562,7 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK45" t="n">
         <v>26</v>
@@ -6781,16 +6781,16 @@
         <v>1.54</v>
       </c>
       <c r="S47" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T47" t="n">
         <v>1.58</v>
       </c>
       <c r="U47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
         <v>1.78</v>
@@ -6901,7 +6901,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.17</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G49" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H49" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="I49" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7060,7 +7060,7 @@
         <v>2.26</v>
       </c>
       <c r="V49" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W49" t="n">
         <v>1.29</v>
@@ -7285,19 +7285,19 @@
         <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I51" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7333,7 +7333,7 @@
         <v>2.08</v>
       </c>
       <c r="W51" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G52" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="H52" t="n">
         <v>5.5</v>
@@ -7432,7 +7432,7 @@
         <v>3.7</v>
       </c>
       <c r="K52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>1.43</v>
@@ -7465,10 +7465,10 @@
         <v>1.92</v>
       </c>
       <c r="V52" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="X52" t="n">
         <v>15.5</v>
@@ -7486,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7495,7 +7495,7 @@
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG52" t="n">
         <v>10</v>
@@ -7519,7 +7519,7 @@
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G56" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I56" t="n">
         <v>6.2</v>
@@ -7996,7 +7996,7 @@
         <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T56" t="n">
         <v>1.96</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X56" t="n">
         <v>16</v>
@@ -8251,7 +8251,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="O58" t="n">
         <v>1.24</v>
@@ -8365,13 +8365,13 @@
         <v>2.8</v>
       </c>
       <c r="G59" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>2.66</v>
       </c>
       <c r="I59" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J59" t="n">
         <v>2.52</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W59" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="G62" t="n">
         <v>6.2</v>
@@ -8776,7 +8776,7 @@
         <v>1.62</v>
       </c>
       <c r="I62" t="n">
-        <v>870</v>
+        <v>2.14</v>
       </c>
       <c r="J62" t="n">
         <v>3.45</v>
@@ -8815,7 +8815,7 @@
         <v>1.04</v>
       </c>
       <c r="V62" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="W62" t="n">
         <v>1.19</v>
@@ -9070,10 +9070,10 @@
         <v>2.42</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R64" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S64" t="n">
         <v>2.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
         <v>2.32</v>
@@ -682,61 +682,61 @@
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>980</v>
       </c>
-      <c r="Z2" t="n">
-        <v>27</v>
-      </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -745,13 +745,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,19 +760,19 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
         <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
         <v>2.44</v>
@@ -835,7 +835,7 @@
         <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
         <v>1.51</v>
@@ -850,19 +850,19 @@
         <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>34</v>
@@ -904,10 +904,10 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="G4" t="n">
         <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>2.58</v>
@@ -988,7 +988,7 @@
         <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1024,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
         <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="J5" t="n">
         <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="W5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
@@ -1225,13 +1225,13 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1246,10 +1246,10 @@
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
         <v>1.56</v>
@@ -1258,7 +1258,7 @@
         <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1345,7 +1345,7 @@
         <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>1.92</v>
@@ -1357,7 +1357,7 @@
         <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1513,7 +1513,7 @@
         <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
         <v>2.9</v>
@@ -1525,10 +1525,10 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1537,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1552,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>18</v>
@@ -1570,10 +1570,10 @@
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1639,7 +1639,7 @@
         <v>2.54</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
         <v>1.73</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>660</v>
+        <v>980</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="I10" t="n">
-        <v>870</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1771,34 +1771,34 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,16 +1885,16 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>7</v>
@@ -1918,22 +1918,22 @@
         <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -1960,7 +1960,7 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
         <v>36</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
         <v>2.62</v>
@@ -2026,13 +2026,13 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2296,7 +2296,7 @@
         <v>1.25</v>
       </c>
       <c r="I14" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
         <v>14.5</v>
@@ -2425,7 +2425,7 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
         <v>2.64</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2455,7 +2455,7 @@
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2473,7 +2473,7 @@
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2497,7 +2497,7 @@
         <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2560,7 +2560,7 @@
         <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
@@ -2569,7 +2569,7 @@
         <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2608,7 +2608,7 @@
         <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2722,7 +2722,7 @@
         <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
         <v>1.93</v>
@@ -2734,22 +2734,22 @@
         <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2833,7 +2833,7 @@
         <v>1.64</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
@@ -2869,7 +2869,7 @@
         <v>2.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
@@ -2878,7 +2878,7 @@
         <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2917,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
         <v>15.5</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
@@ -2992,28 +2992,28 @@
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V19" t="n">
         <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3040,7 +3040,7 @@
         <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
         <v>4.9</v>
@@ -3112,7 +3112,7 @@
         <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3145,7 +3145,7 @@
         <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
         <v>1.76</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H21" t="n">
         <v>3.7</v>
@@ -3247,7 +3247,7 @@
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3274,7 +3274,7 @@
         <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U21" t="n">
         <v>1.04</v>
@@ -3283,7 +3283,7 @@
         <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3370,10 +3370,10 @@
         <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I22" t="n">
         <v>2.16</v>
@@ -3382,7 +3382,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.29</v>
@@ -3409,10 +3409,10 @@
         <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V22" t="n">
         <v>1.86</v>
@@ -3454,7 +3454,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -3463,7 +3463,7 @@
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -3511,7 +3511,7 @@
         <v>2.62</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3640,16 +3640,16 @@
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
         <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3667,34 +3667,34 @@
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
         <v>2.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X24" t="n">
         <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -3721,10 +3721,10 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
@@ -3733,7 +3733,7 @@
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J25" t="n">
         <v>2.98</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3922,7 +3922,7 @@
         <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.32</v>
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
@@ -3940,10 +3940,10 @@
         <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
         <v>2.98</v>
@@ -4048,7 +4048,7 @@
         <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
         <v>2.76</v>
@@ -4084,7 +4084,7 @@
         <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U27" t="n">
         <v>1.89</v>
@@ -4093,7 +4093,7 @@
         <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
         <v>12.5</v>
@@ -4186,7 +4186,7 @@
         <v>2.62</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J28" t="n">
         <v>2.88</v>
@@ -4219,10 +4219,10 @@
         <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="V28" t="n">
         <v>1.37</v>
@@ -4315,13 +4315,13 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
         <v>2.16</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
@@ -4360,10 +4360,10 @@
         <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -4402,7 +4402,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
         <v>46</v>
@@ -4468,13 +4468,13 @@
         <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O30" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
         <v>1.55</v>
@@ -4489,10 +4489,10 @@
         <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
         <v>1.25</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4588,10 +4588,10 @@
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
@@ -4600,37 +4600,37 @@
         <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q31" t="n">
         <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
         <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
         <v>2</v>
@@ -4885,7 +4885,7 @@
         <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="H34" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>5.9</v>
+        <v>500</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5011,7 +5011,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
@@ -5020,7 +5020,7 @@
         <v>1.69</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -5029,16 +5029,16 @@
         <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
         <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5137,7 +5137,7 @@
         <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5152,7 +5152,7 @@
         <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q35" t="n">
         <v>1.49</v>
@@ -5161,13 +5161,13 @@
         <v>1.52</v>
       </c>
       <c r="S35" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V35" t="n">
         <v>1.01</v>
@@ -5176,7 +5176,7 @@
         <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="n">
         <v>42</v>
@@ -5287,7 +5287,7 @@
         <v>1.08</v>
       </c>
       <c r="P36" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q36" t="n">
         <v>2.1</v>
@@ -5299,13 +5299,13 @@
         <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W36" t="n">
         <v>1.56</v>
@@ -5413,10 +5413,10 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -5425,16 +5425,16 @@
         <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
         <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T37" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
         <v>2.02</v>
@@ -5443,16 +5443,16 @@
         <v>1.62</v>
       </c>
       <c r="W37" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA37" t="n">
         <v>48</v>
@@ -5464,16 +5464,16 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE37" t="n">
         <v>38</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH37" t="n">
         <v>23</v>
@@ -5482,7 +5482,7 @@
         <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
         <v>48</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G38" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
         <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K38" t="n">
         <v>3.1</v>
@@ -5569,16 +5569,16 @@
         <v>6.2</v>
       </c>
       <c r="T38" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U38" t="n">
         <v>1.64</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X38" t="n">
         <v>8.6</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H39" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
         <v>3.35</v>
@@ -5683,37 +5683,37 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O39" t="n">
         <v>1.47</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R39" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T39" t="n">
         <v>1.96</v>
       </c>
       <c r="U39" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
@@ -5731,7 +5731,7 @@
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
         <v>12.5</v>
@@ -5803,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -5839,10 +5839,10 @@
         <v>2.12</v>
       </c>
       <c r="T40" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U40" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>1.5</v>
@@ -5971,7 +5971,7 @@
         <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T41" t="n">
         <v>1.04</v>
@@ -6070,7 +6070,7 @@
         <v>2.54</v>
       </c>
       <c r="G42" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6094,13 +6094,13 @@
         <v>2.98</v>
       </c>
       <c r="O42" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R42" t="n">
         <v>1.24</v>
@@ -6109,19 +6109,19 @@
         <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
         <v>11</v>
@@ -6136,7 +6136,7 @@
         <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6211,7 +6211,7 @@
         <v>1.78</v>
       </c>
       <c r="I43" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J43" t="n">
         <v>4.1</v>
@@ -6235,10 +6235,10 @@
         <v>2.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
         <v>2.28</v>
@@ -6259,7 +6259,7 @@
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
         <v>17.5</v>
@@ -6376,7 +6376,7 @@
         <v>1.88</v>
       </c>
       <c r="S44" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T44" t="n">
         <v>1.44</v>
@@ -6481,7 +6481,7 @@
         <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J45" t="n">
         <v>3.8</v>
@@ -6520,7 +6520,7 @@
         <v>2.46</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W45" t="n">
         <v>1.72</v>
@@ -6556,7 +6556,7 @@
         <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
@@ -6568,13 +6568,13 @@
         <v>26</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6745,7 +6745,7 @@
         <v>2.12</v>
       </c>
       <c r="G47" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
@@ -6781,7 +6781,7 @@
         <v>1.54</v>
       </c>
       <c r="S47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T47" t="n">
         <v>1.58</v>
@@ -6793,7 +6793,7 @@
         <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
         <v>27</v>
@@ -6805,7 +6805,7 @@
         <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
         <v>16.5</v>
@@ -6901,7 +6901,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="O48" t="n">
         <v>1.17</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G49" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H49" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="I49" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="J49" t="n">
         <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>5.9</v>
+        <v>980</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7057,10 +7057,10 @@
         <v>1.48</v>
       </c>
       <c r="U49" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W49" t="n">
         <v>1.29</v>
@@ -7285,7 +7285,7 @@
         <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H51" t="n">
         <v>1.74</v>
@@ -7297,7 +7297,7 @@
         <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7324,7 +7324,7 @@
         <v>2.4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U51" t="n">
         <v>1.04</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H52" t="n">
         <v>5.5</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J52" t="n">
         <v>3.7</v>
@@ -7441,13 +7441,13 @@
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O52" t="n">
         <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q52" t="n">
         <v>2.04</v>
@@ -7459,16 +7459,16 @@
         <v>3.7</v>
       </c>
       <c r="T52" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U52" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W52" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X52" t="n">
         <v>15.5</v>
@@ -7486,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7507,7 +7507,7 @@
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK52" t="n">
         <v>1000</v>
@@ -7717,7 +7717,7 @@
         <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q54" t="n">
         <v>1.84</v>
@@ -7753,10 +7753,10 @@
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD54" t="n">
         <v>1000</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H55" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="I55" t="n">
         <v>3.45</v>
@@ -7837,7 +7837,7 @@
         <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L55" t="n">
         <v>1.32</v>
@@ -7846,7 +7846,7 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
@@ -7855,7 +7855,7 @@
         <v>1.77</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R55" t="n">
         <v>1.25</v>
@@ -7873,7 +7873,7 @@
         <v>1.41</v>
       </c>
       <c r="W55" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7963,16 +7963,16 @@
         <v>1.8</v>
       </c>
       <c r="H56" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I56" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7984,7 +7984,7 @@
         <v>3.45</v>
       </c>
       <c r="O56" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
         <v>1.84</v>
@@ -7996,7 +7996,7 @@
         <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
         <v>1.96</v>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G57" t="n">
         <v>2.62</v>
       </c>
       <c r="H57" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I57" t="n">
         <v>2.84</v>
@@ -8110,7 +8110,7 @@
         <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H58" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
         <v>4.5</v>
@@ -8251,7 +8251,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O58" t="n">
         <v>1.24</v>
@@ -8269,16 +8269,16 @@
         <v>2.88</v>
       </c>
       <c r="T58" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U58" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W58" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8305,10 +8305,10 @@
         <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG58" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH58" t="n">
         <v>25</v>
@@ -8317,7 +8317,7 @@
         <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK58" t="n">
         <v>30</v>
@@ -8329,7 +8329,7 @@
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8365,34 +8365,34 @@
         <v>2.8</v>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="I59" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J59" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="K59" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="L59" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q59" t="n">
         <v>2.48</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W59" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8506,16 +8506,16 @@
         <v>2.04</v>
       </c>
       <c r="I60" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J60" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K60" t="n">
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8527,10 +8527,10 @@
         <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
@@ -8545,7 +8545,7 @@
         <v>2.36</v>
       </c>
       <c r="V60" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -8566,16 +8566,16 @@
         <v>17.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD60" t="n">
         <v>10</v>
       </c>
       <c r="AE60" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG60" t="n">
         <v>15.5</v>
@@ -8584,7 +8584,7 @@
         <v>16.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ60" t="n">
         <v>75</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G61" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H61" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I61" t="n">
         <v>2.22</v>
@@ -8647,7 +8647,7 @@
         <v>3.3</v>
       </c>
       <c r="K61" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.3</v>
@@ -8656,7 +8656,7 @@
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -8665,7 +8665,7 @@
         <v>1.9</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R61" t="n">
         <v>1.31</v>
@@ -8674,16 +8674,16 @@
         <v>2.86</v>
       </c>
       <c r="T61" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V61" t="n">
         <v>1.81</v>
       </c>
       <c r="W61" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="62">
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="G62" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H62" t="n">
         <v>1.62</v>
       </c>
       <c r="I62" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="J62" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K62" t="n">
         <v>4.9</v>
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O62" t="n">
         <v>1.31</v>
       </c>
       <c r="P62" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R62" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S62" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T62" t="n">
         <v>1.04</v>
@@ -8815,7 +8815,7 @@
         <v>1.04</v>
       </c>
       <c r="V62" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="W62" t="n">
         <v>1.19</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G63" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I63" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.95</v>
       </c>
       <c r="J63" t="n">
         <v>3.65</v>
@@ -8932,10 +8932,10 @@
         <v>1.32</v>
       </c>
       <c r="P63" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R63" t="n">
         <v>1.38</v>
@@ -8953,7 +8953,7 @@
         <v>1.34</v>
       </c>
       <c r="W63" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8962,7 +8962,7 @@
         <v>14.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA63" t="n">
         <v>75</v>
@@ -8974,16 +8974,16 @@
         <v>8</v>
       </c>
       <c r="AD63" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE63" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF63" t="n">
         <v>13.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH63" t="n">
         <v>18</v>
@@ -9004,10 +9004,10 @@
         <v>95</v>
       </c>
       <c r="AN63" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -9043,7 +9043,7 @@
         <v>1.91</v>
       </c>
       <c r="H64" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I64" t="n">
         <v>1000</v>
@@ -9073,16 +9073,16 @@
         <v>1.52</v>
       </c>
       <c r="R64" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S64" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T64" t="n">
         <v>1.46</v>
       </c>
       <c r="U64" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V64" t="n">
         <v>1.25</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G65" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H65" t="n">
         <v>4.1</v>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="J65" t="n">
         <v>4.2</v>
       </c>
       <c r="K65" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,7 +9196,7 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O65" t="n">
         <v>1.15</v>
@@ -9211,7 +9211,7 @@
         <v>1.54</v>
       </c>
       <c r="S65" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T65" t="n">
         <v>1.44</v>
@@ -9220,10 +9220,10 @@
         <v>1.89</v>
       </c>
       <c r="V65" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W65" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
@@ -766,13 +766,13 @@
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>16.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
@@ -964,7 +964,7 @@
         <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
         <v>1.81</v>
@@ -985,10 +985,10 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AC6" t="n">
         <v>9.199999999999999</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q7" t="n">
         <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1552,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>18</v>
@@ -1573,7 +1573,7 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1621,10 +1621,10 @@
         <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1660,7 +1660,7 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.42</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.52</v>
+        <v>1.99</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
         <v>1.59</v>
       </c>
       <c r="V10" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
@@ -1885,19 +1885,19 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.2</v>
@@ -1912,10 +1912,10 @@
         <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R11" t="n">
         <v>1.73</v>
@@ -1924,7 +1924,7 @@
         <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
@@ -1933,13 +1933,13 @@
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>32</v>
@@ -1975,10 +1975,10 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
         <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2158,106 +2158,106 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>1.08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>14.5</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2425,19 +2425,19 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I15" t="n">
         <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.3</v>
@@ -2455,7 +2455,7 @@
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2479,10 +2479,10 @@
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2500,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
         <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>4.3</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2596,13 +2596,13 @@
         <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
         <v>1.3</v>
@@ -2611,7 +2611,7 @@
         <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2698,10 +2698,10 @@
         <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2716,16 +2716,16 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
@@ -2842,7 +2842,7 @@
         <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2866,40 +2866,40 @@
         <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X18" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
         <v>22</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>75</v>
@@ -2917,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>15.5</v>
@@ -2965,10 +2965,10 @@
         <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.3</v>
@@ -2989,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
         <v>2.34</v>
@@ -3001,10 +3001,10 @@
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
         <v>2.4</v>
@@ -3013,7 +3013,7 @@
         <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3043,7 +3043,7 @@
         <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>2.3</v>
@@ -3106,7 +3106,7 @@
         <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
@@ -3121,7 +3121,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O20" t="n">
         <v>1.26</v>
@@ -3133,10 +3133,10 @@
         <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
@@ -3289,7 +3289,7 @@
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3304,7 +3304,7 @@
         <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3322,10 +3322,10 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3670,10 +3670,10 @@
         <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
         <v>2.4</v>
@@ -3778,10 +3778,10 @@
         <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="J25" t="n">
         <v>2.98</v>
@@ -3790,16 +3790,16 @@
         <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
         <v>1.45</v>
@@ -3808,76 +3808,76 @@
         <v>2.36</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>1.79</v>
       </c>
       <c r="G26" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3958,7 +3958,7 @@
         <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4051,7 +4051,7 @@
         <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>1.91</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
         <v>1.57</v>
@@ -4354,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
         <v>1.72</v>
@@ -4369,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
         <v>18.5</v>
@@ -4384,10 +4384,10 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
         <v>32</v>
@@ -4402,7 +4402,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="n">
         <v>46</v>
@@ -4450,19 +4450,19 @@
         <v>1.94</v>
       </c>
       <c r="G30" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.4</v>
@@ -4498,7 +4498,7 @@
         <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4585,19 +4585,19 @@
         <v>1.62</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H31" t="n">
         <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.35</v>
@@ -4606,16 +4606,16 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
@@ -4630,10 +4630,10 @@
         <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4858,7 +4858,7 @@
         <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.4</v>
@@ -5125,7 +5125,7 @@
         <v>1.44</v>
       </c>
       <c r="G35" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H35" t="n">
         <v>5.3</v>
@@ -5152,7 +5152,7 @@
         <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q35" t="n">
         <v>1.49</v>
@@ -5266,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J36" t="n">
         <v>3.1</v>
@@ -5314,7 +5314,7 @@
         <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
         <v>25</v>
@@ -5422,7 +5422,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q37" t="n">
         <v>2.12</v>
@@ -5437,7 +5437,7 @@
         <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>1.62</v>
@@ -5449,7 +5449,7 @@
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>19.5</v>
@@ -5539,7 +5539,7 @@
         <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K38" t="n">
         <v>3.1</v>
@@ -5551,7 +5551,7 @@
         <v>1.13</v>
       </c>
       <c r="N38" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
         <v>1.64</v>
@@ -5560,7 +5560,7 @@
         <v>1.41</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R38" t="n">
         <v>1.16</v>
@@ -5569,7 +5569,7 @@
         <v>6.2</v>
       </c>
       <c r="T38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U38" t="n">
         <v>1.64</v>
@@ -5677,7 +5677,7 @@
         <v>3.05</v>
       </c>
       <c r="K39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H40" t="n">
         <v>2.26</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
         <v>980</v>
@@ -5818,7 +5818,7 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
         <v>2.32</v>
@@ -5833,7 +5833,7 @@
         <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
         <v>2.12</v>
@@ -5842,10 +5842,10 @@
         <v>1.43</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
         <v>1.5</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="n">
         <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -5965,7 +5965,7 @@
         <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R41" t="n">
         <v>1.62</v>
@@ -6073,13 +6073,13 @@
         <v>2.86</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>3.35</v>
@@ -6097,7 +6097,7 @@
         <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q42" t="n">
         <v>2.26</v>
@@ -6373,7 +6373,7 @@
         <v>1.33</v>
       </c>
       <c r="R44" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S44" t="n">
         <v>1.94</v>
@@ -6388,7 +6388,7 @@
         <v>1.26</v>
       </c>
       <c r="W44" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6511,7 +6511,7 @@
         <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T45" t="n">
         <v>1.58</v>
@@ -6532,7 +6532,7 @@
         <v>21</v>
       </c>
       <c r="Z45" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
@@ -6547,7 +6547,7 @@
         <v>17.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
         <v>21</v>
@@ -6562,7 +6562,7 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
         <v>26</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G46" t="n">
         <v>1.99</v>
@@ -6628,7 +6628,7 @@
         <v>1.18</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
         <v>7</v>
@@ -6643,7 +6643,7 @@
         <v>1.3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S46" t="n">
         <v>1.87</v>
@@ -6676,7 +6676,7 @@
         <v>25</v>
       </c>
       <c r="AC46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD46" t="n">
         <v>22</v>
@@ -6685,10 +6685,10 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH46" t="n">
         <v>18</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="G48" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.44</v>
+        <v>2.42</v>
       </c>
       <c r="I48" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K48" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6904,25 +6904,25 @@
         <v>1.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
         <v>2.42</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R48" t="n">
         <v>1.58</v>
       </c>
       <c r="S48" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T48" t="n">
         <v>1.4</v>
       </c>
       <c r="U48" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V48" t="n">
         <v>1.01</v>
@@ -6946,7 +6946,7 @@
         <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD48" t="n">
         <v>18</v>
@@ -6955,7 +6955,7 @@
         <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG48" t="n">
         <v>19</v>
@@ -6973,13 +6973,13 @@
         <v>36</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7015,10 +7015,10 @@
         <v>3.35</v>
       </c>
       <c r="G49" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H49" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="I49" t="n">
         <v>2.14</v>
@@ -7027,7 +7027,7 @@
         <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>980</v>
+        <v>5.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7063,7 +7063,7 @@
         <v>1.87</v>
       </c>
       <c r="W49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7285,19 +7285,19 @@
         <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>1.74</v>
       </c>
       <c r="I51" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J51" t="n">
         <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7330,7 +7330,7 @@
         <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W51" t="n">
         <v>1.25</v>
@@ -7420,7 +7420,7 @@
         <v>1.78</v>
       </c>
       <c r="G52" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H52" t="n">
         <v>5.5</v>
@@ -7432,7 +7432,7 @@
         <v>3.7</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L52" t="n">
         <v>1.43</v>
@@ -7450,7 +7450,7 @@
         <v>1.86</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R52" t="n">
         <v>1.32</v>
@@ -7465,10 +7465,10 @@
         <v>1.93</v>
       </c>
       <c r="V52" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X52" t="n">
         <v>15.5</v>
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G54" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="H54" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I54" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
@@ -7711,7 +7711,7 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O54" t="n">
         <v>1.32</v>
@@ -7732,13 +7732,13 @@
         <v>1.79</v>
       </c>
       <c r="U54" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V54" t="n">
         <v>1.16</v>
       </c>
       <c r="W54" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7831,37 +7831,37 @@
         <v>2.56</v>
       </c>
       <c r="I55" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L55" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S55" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="T55" t="n">
         <v>1.04</v>
@@ -7870,7 +7870,7 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W55" t="n">
         <v>1.45</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H56" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X56" t="n">
         <v>16</v>
@@ -8095,19 +8095,19 @@
         <v>2.6</v>
       </c>
       <c r="G57" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H57" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I57" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.85</v>
       </c>
       <c r="L57" t="n">
         <v>1.29</v>
@@ -8119,7 +8119,7 @@
         <v>5.2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
         <v>2.42</v>
@@ -8128,19 +8128,19 @@
         <v>1.68</v>
       </c>
       <c r="R57" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S57" t="n">
         <v>2.68</v>
       </c>
       <c r="T57" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U57" t="n">
         <v>2.66</v>
       </c>
       <c r="V57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W57" t="n">
         <v>1.61</v>
@@ -8251,7 +8251,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="O58" t="n">
         <v>1.24</v>
@@ -8362,31 +8362,31 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="J59" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
         <v>980</v>
       </c>
       <c r="L59" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8530,13 +8530,13 @@
         <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T60" t="n">
         <v>1.68</v>
@@ -8563,7 +8563,7 @@
         <v>24</v>
       </c>
       <c r="AB60" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC60" t="n">
         <v>8.6</v>
@@ -8599,10 +8599,10 @@
         <v>75</v>
       </c>
       <c r="AN60" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="61">
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G61" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H61" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I61" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="J61" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K61" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L61" t="n">
         <v>1.3</v>
@@ -8656,7 +8656,7 @@
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -8680,7 +8680,7 @@
         <v>1.04</v>
       </c>
       <c r="V61" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="W61" t="n">
         <v>1.22</v>
@@ -8698,7 +8698,7 @@
         <v>28</v>
       </c>
       <c r="AB61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC61" t="n">
         <v>12</v>
@@ -8710,7 +8710,7 @@
         <v>25</v>
       </c>
       <c r="AF61" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG61" t="n">
         <v>25</v>
@@ -8719,7 +8719,7 @@
         <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -8905,16 +8905,16 @@
         <v>2.14</v>
       </c>
       <c r="G63" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I63" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J63" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K63" t="n">
         <v>3.7</v>
@@ -8926,28 +8926,28 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O63" t="n">
         <v>1.32</v>
       </c>
       <c r="P63" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R63" t="n">
         <v>1.38</v>
       </c>
       <c r="S63" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T63" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U63" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V63" t="n">
         <v>1.34</v>
@@ -8962,13 +8962,13 @@
         <v>14.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA63" t="n">
         <v>75</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC63" t="n">
         <v>8</v>
@@ -9001,10 +9001,10 @@
         <v>38</v>
       </c>
       <c r="AM63" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN63" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO63" t="n">
         <v>46</v>
@@ -9040,16 +9040,16 @@
         <v>1.04</v>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="H64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J64" t="n">
         <v>3.85</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.7</v>
       </c>
       <c r="K64" t="n">
         <v>6.4</v>
@@ -9058,10 +9058,10 @@
         <v>1.01</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -9070,7 +9070,7 @@
         <v>2.42</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R64" t="n">
         <v>1.44</v>
@@ -9082,19 +9082,19 @@
         <v>1.46</v>
       </c>
       <c r="U64" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
         <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="X64" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y64" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z64" t="n">
         <v>1000</v>
@@ -9106,22 +9106,22 @@
         <v>16</v>
       </c>
       <c r="AC64" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG64" t="n">
         <v>15</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="G65" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="H65" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I65" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="J65" t="n">
         <v>4.2</v>
       </c>
       <c r="K65" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,34 +9196,34 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="R65" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="S65" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="T65" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="U65" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="V65" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="W65" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9334,13 +9334,13 @@
         <v>1.32</v>
       </c>
       <c r="O66" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P66" t="n">
         <v>1.32</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -673,22 +673,22 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.55</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.65</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>4.1</v>
@@ -715,64 +715,64 @@
         <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="n">
         <v>15</v>
       </c>
-      <c r="AE2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>980</v>
-      </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>16.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.4</v>
@@ -850,13 +850,13 @@
         <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
@@ -901,13 +901,13 @@
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -949,10 +949,10 @@
         <v>2.56</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>2.2</v>
@@ -1210,7 +1210,7 @@
         <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
@@ -1258,7 +1258,7 @@
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1486,10 +1486,10 @@
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1525,7 +1525,7 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.9</v>
@@ -1552,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>18</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="V10" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
@@ -1885,7 +1885,7 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -1894,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K11" t="n">
         <v>6.8</v>
@@ -1912,7 +1912,7 @@
         <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
         <v>1.46</v>
@@ -1933,7 +1933,7 @@
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -2020,34 +2020,34 @@
         <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
         <v>2.08</v>
@@ -2059,19 +2059,19 @@
         <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
         <v>17.5</v>
@@ -2086,7 +2086,7 @@
         <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>980</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2173,16 +2173,16 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>1.77</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
         <v>2.06</v>
@@ -2203,10 +2203,10 @@
         <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
         <v>20</v>
@@ -2293,13 +2293,13 @@
         <v>1.12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="I14" t="n">
         <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>14.5</v>
       </c>
       <c r="K14" t="n">
         <v>19.5</v>
@@ -2425,7 +2425,7 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
         <v>2.66</v>
@@ -2491,7 +2491,7 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>15.5</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
@@ -2581,13 +2581,13 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" t="n">
         <v>1.78</v>
@@ -2599,16 +2599,16 @@
         <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>20</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
         <v>25</v>
@@ -2698,7 +2698,7 @@
         <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I17" t="n">
         <v>2.98</v>
@@ -2716,7 +2716,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -2725,7 +2725,7 @@
         <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
@@ -2734,7 +2734,7 @@
         <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
@@ -2830,19 +2830,19 @@
         <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -2866,13 +2866,13 @@
         <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
         <v>1.19</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
@@ -2995,13 +2995,13 @@
         <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T19" t="n">
         <v>1.65</v>
@@ -3010,13 +3010,13 @@
         <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
         <v>22</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
@@ -3136,7 +3136,7 @@
         <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
@@ -3145,10 +3145,10 @@
         <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3178,7 +3178,7 @@
         <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
         <v>24</v>
@@ -3193,13 +3193,13 @@
         <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,7 +3256,7 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.26</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.17</v>
@@ -3268,22 +3268,22 @@
         <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
         <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3397,31 +3397,31 @@
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.61</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>14.5</v>
@@ -3448,13 +3448,13 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -3466,13 +3466,13 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H24" t="n">
         <v>1.46</v>
@@ -3649,7 +3649,7 @@
         <v>1.48</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3661,43 +3661,43 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA24" t="n">
         <v>14</v>
@@ -3706,43 +3706,43 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="n">
         <v>95</v>
       </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25">
@@ -3778,25 +3778,25 @@
         <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J25" t="n">
         <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3805,7 +3805,7 @@
         <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3814,13 +3814,13 @@
         <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
         <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W25" t="n">
         <v>1.31</v>
@@ -3922,7 +3922,7 @@
         <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.32</v>
@@ -3946,10 +3946,10 @@
         <v>1.28</v>
       </c>
       <c r="S26" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
         <v>1.04</v>
@@ -4057,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -4069,7 +4069,7 @@
         <v>2.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
         <v>1.64</v>
@@ -4087,22 +4087,22 @@
         <v>1.91</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
         <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X27" t="n">
         <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>48</v>
@@ -4123,22 +4123,22 @@
         <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4183,16 +4183,16 @@
         <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
         <v>2.88</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.43</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -4222,10 +4222,10 @@
         <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W28" t="n">
         <v>1.47</v>
@@ -4324,10 +4324,10 @@
         <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>1.3</v>
@@ -4336,31 +4336,31 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
         <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
         <v>1.37</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
@@ -4402,7 +4402,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
         <v>46</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G30" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>3.05</v>
@@ -4489,16 +4489,16 @@
         <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="V30" t="n">
         <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G31" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H31" t="n">
         <v>4.6</v>
@@ -4594,19 +4594,19 @@
         <v>7.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
@@ -4615,7 +4615,7 @@
         <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
@@ -4627,7 +4627,7 @@
         <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G32" t="n">
         <v>1.86</v>
@@ -4726,13 +4726,13 @@
         <v>5.3</v>
       </c>
       <c r="I32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.35</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O32" t="n">
         <v>1.35</v>
@@ -4750,10 +4750,10 @@
         <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
         <v>3.25</v>
@@ -4798,7 +4798,7 @@
         <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>34</v>
@@ -4810,7 +4810,7 @@
         <v>24</v>
       </c>
       <c r="AK32" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4855,19 +4855,19 @@
         <v>2.04</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.37</v>
@@ -4879,31 +4879,31 @@
         <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="n">
         <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4930,7 +4930,7 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
         <v>13</v>
@@ -4990,7 +4990,7 @@
         <v>1.55</v>
       </c>
       <c r="G34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H34" t="n">
         <v>5.1</v>
@@ -5002,7 +5002,7 @@
         <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>500</v>
+        <v>6.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5011,7 +5011,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
@@ -5020,7 +5020,7 @@
         <v>1.69</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -5032,7 +5032,7 @@
         <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
         <v>1.15</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G35" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H35" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5164,7 +5164,7 @@
         <v>2.14</v>
       </c>
       <c r="T35" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U35" t="n">
         <v>1.04</v>
@@ -5263,7 +5263,7 @@
         <v>2.76</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I36" t="n">
         <v>3.35</v>
@@ -5272,19 +5272,19 @@
         <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O36" t="n">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="P36" t="n">
         <v>1.65</v>
@@ -5299,7 +5299,7 @@
         <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
         <v>1.96</v>
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
         <v>3.35</v>
       </c>
       <c r="H37" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I37" t="n">
         <v>2.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
@@ -5419,25 +5419,25 @@
         <v>3.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
         <v>1.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R37" t="n">
         <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T37" t="n">
         <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V37" t="n">
         <v>1.62</v>
@@ -5446,10 +5446,10 @@
         <v>1.43</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
         <v>19.5</v>
@@ -5461,7 +5461,7 @@
         <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
         <v>14.5</v>
@@ -5527,37 +5527,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G38" t="n">
         <v>2.62</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K38" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N38" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O38" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P38" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q38" t="n">
         <v>2.96</v>
@@ -5569,37 +5569,37 @@
         <v>6.2</v>
       </c>
       <c r="T38" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V38" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
         <v>1.61</v>
       </c>
       <c r="X38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC38" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y38" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD38" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5608,7 +5608,7 @@
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5665,19 +5665,19 @@
         <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I39" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J39" t="n">
         <v>3.05</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,7 +5686,7 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.47</v>
@@ -5704,16 +5704,16 @@
         <v>4.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U39" t="n">
         <v>1.88</v>
       </c>
       <c r="V39" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
@@ -5731,7 +5731,7 @@
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>12.5</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G40" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H40" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="K40" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,31 +5821,31 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="O40" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q40" t="n">
         <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="n">
         <v>2.12</v>
       </c>
       <c r="T40" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V40" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="W40" t="n">
         <v>1.5</v>
@@ -5854,7 +5854,7 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,13 +5863,13 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
         <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5881,7 +5881,7 @@
         <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="G41" t="n">
         <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.48</v>
+        <v>2.16</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -5947,13 +5947,13 @@
         <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
         <v>1.1</v>
@@ -5965,7 +5965,7 @@
         <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R41" t="n">
         <v>1.62</v>
@@ -5974,10 +5974,10 @@
         <v>2.06</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="V41" t="n">
         <v>1.01</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G42" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,7 +6091,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
         <v>1.42</v>
@@ -6100,7 +6100,7 @@
         <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R42" t="n">
         <v>1.24</v>
@@ -6109,16 +6109,16 @@
         <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
         <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6208,16 +6208,16 @@
         <v>4.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I43" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J43" t="n">
         <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.23</v>
@@ -6232,10 +6232,10 @@
         <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R43" t="n">
         <v>1.63</v>
@@ -6244,13 +6244,13 @@
         <v>2.28</v>
       </c>
       <c r="T43" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U43" t="n">
         <v>2.44</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W43" t="n">
         <v>1.23</v>
@@ -6265,7 +6265,7 @@
         <v>17.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB43" t="n">
         <v>28</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -6337,37 +6337,37 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G44" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H44" t="n">
         <v>3.65</v>
       </c>
       <c r="I44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J44" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K44" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M44" t="n">
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="O44" t="n">
         <v>1.12</v>
       </c>
       <c r="P44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q44" t="n">
         <v>1.33</v>
@@ -6382,7 +6382,7 @@
         <v>1.44</v>
       </c>
       <c r="U44" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="V44" t="n">
         <v>1.26</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G45" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H45" t="n">
         <v>3.05</v>
@@ -6496,37 +6496,37 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P45" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q45" t="n">
         <v>1.64</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S45" t="n">
         <v>2.36</v>
       </c>
       <c r="T45" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U45" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V45" t="n">
         <v>1.41</v>
       </c>
       <c r="W45" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X45" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
         <v>21</v>
@@ -6538,7 +6538,7 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
         <v>11.5</v>
@@ -6547,7 +6547,7 @@
         <v>17.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="n">
         <v>21</v>
@@ -6556,7 +6556,7 @@
         <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
@@ -6568,16 +6568,16 @@
         <v>26</v>
       </c>
       <c r="AL45" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G46" t="n">
         <v>1.99</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K46" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.18</v>
@@ -6652,10 +6652,10 @@
         <v>1.41</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V46" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W46" t="n">
         <v>2</v>
@@ -6676,7 +6676,7 @@
         <v>25</v>
       </c>
       <c r="AC46" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD46" t="n">
         <v>22</v>
@@ -6691,7 +6691,7 @@
         <v>14.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
@@ -6742,37 +6742,37 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G47" t="n">
         <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
         <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O47" t="n">
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q47" t="n">
         <v>1.63</v>
@@ -6781,13 +6781,13 @@
         <v>1.54</v>
       </c>
       <c r="S47" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T47" t="n">
         <v>1.58</v>
       </c>
       <c r="U47" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V47" t="n">
         <v>1.4</v>
@@ -6799,34 +6799,34 @@
         <v>27</v>
       </c>
       <c r="Y47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
         <v>18</v>
       </c>
       <c r="AE47" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF47" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI47" t="n">
         <v>46</v>
@@ -6835,7 +6835,7 @@
         <v>34</v>
       </c>
       <c r="AK47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL47" t="n">
         <v>36</v>
@@ -6844,10 +6844,10 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO47" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H48" t="n">
-        <v>2.42</v>
+        <v>1.49</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="J48" t="n">
         <v>3.8</v>
       </c>
       <c r="K48" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6913,7 +6913,7 @@
         <v>1.49</v>
       </c>
       <c r="R48" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
         <v>2.14</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G49" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H49" t="n">
         <v>1.91</v>
       </c>
       <c r="I49" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J49" t="n">
         <v>3.9</v>
@@ -7048,22 +7048,22 @@
         <v>1.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S49" t="n">
         <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
         <v>2.22</v>
       </c>
       <c r="V49" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7090,7 +7090,7 @@
         <v>26</v>
       </c>
       <c r="AF49" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
         <v>24</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="G50" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="H50" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I50" t="n">
         <v>4.1</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L50" t="n">
         <v>1.37</v>
@@ -7285,19 +7285,19 @@
         <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H51" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I51" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7315,7 +7315,7 @@
         <v>2.16</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R51" t="n">
         <v>1.44</v>
@@ -7324,16 +7324,16 @@
         <v>2.4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U51" t="n">
         <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W51" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7342,7 +7342,7 @@
         <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
         <v>28</v>
@@ -7363,7 +7363,7 @@
         <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH51" t="n">
         <v>25</v>
@@ -7420,19 +7420,19 @@
         <v>1.78</v>
       </c>
       <c r="G52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H52" t="n">
         <v>5.5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>1.43</v>
@@ -7456,7 +7456,7 @@
         <v>1.32</v>
       </c>
       <c r="S52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T52" t="n">
         <v>1.94</v>
@@ -7468,7 +7468,7 @@
         <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X52" t="n">
         <v>15.5</v>
@@ -7486,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7504,7 +7504,7 @@
         <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="n">
         <v>23</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G53" t="n">
         <v>3.25</v>
@@ -7567,7 +7567,7 @@
         <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>4.9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="G54" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H54" t="n">
         <v>4.8</v>
       </c>
       <c r="I54" t="n">
-        <v>8.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="J54" t="n">
-        <v>1.21</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,31 +7711,31 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R54" t="n">
         <v>1.3</v>
       </c>
       <c r="S54" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U54" t="n">
         <v>2.02</v>
       </c>
       <c r="V54" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W54" t="n">
         <v>2.12</v>
@@ -7744,7 +7744,7 @@
         <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z54" t="n">
         <v>1000</v>
@@ -7759,7 +7759,7 @@
         <v>12</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
@@ -7768,7 +7768,7 @@
         <v>14.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH54" t="n">
         <v>1000</v>
@@ -7822,46 +7822,46 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="I55" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="R55" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S55" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="T55" t="n">
         <v>1.04</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="W55" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7963,16 +7963,16 @@
         <v>1.81</v>
       </c>
       <c r="H56" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I56" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -8014,7 +8014,7 @@
         <v>16</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z56" t="n">
         <v>1000</v>
@@ -8029,7 +8029,7 @@
         <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G57" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H57" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I57" t="n">
         <v>2.84</v>
       </c>
-      <c r="I57" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L57" t="n">
         <v>1.29</v>
@@ -8122,13 +8122,13 @@
         <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q57" t="n">
         <v>1.68</v>
       </c>
       <c r="R57" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S57" t="n">
         <v>2.68</v>
@@ -8140,7 +8140,7 @@
         <v>2.66</v>
       </c>
       <c r="V57" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W57" t="n">
         <v>1.61</v>
@@ -8191,13 +8191,13 @@
         <v>32</v>
       </c>
       <c r="AM57" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN57" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO57" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G58" t="n">
         <v>2.18</v>
@@ -8251,7 +8251,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O58" t="n">
         <v>1.24</v>
@@ -8263,7 +8263,7 @@
         <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S58" t="n">
         <v>2.88</v>
@@ -8275,7 +8275,7 @@
         <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W58" t="n">
         <v>1.84</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G59" t="n">
         <v>3.3</v>
@@ -8371,7 +8371,7 @@
         <v>2.64</v>
       </c>
       <c r="I59" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J59" t="n">
         <v>2.6</v>
@@ -8386,13 +8386,13 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.92</v>
+        <v>1.1</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q59" t="n">
         <v>2.48</v>
@@ -8500,13 +8500,13 @@
         <v>3.9</v>
       </c>
       <c r="G60" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.04</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.06</v>
       </c>
       <c r="J60" t="n">
         <v>3.9</v>
@@ -8515,7 +8515,7 @@
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8527,7 +8527,7 @@
         <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q60" t="n">
         <v>1.76</v>
@@ -8536,7 +8536,7 @@
         <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T60" t="n">
         <v>1.68</v>
@@ -8545,7 +8545,7 @@
         <v>2.36</v>
       </c>
       <c r="V60" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -8575,7 +8575,7 @@
         <v>19.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG60" t="n">
         <v>15.5</v>
@@ -8602,7 +8602,7 @@
         <v>36</v>
       </c>
       <c r="AO60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -8638,16 +8638,16 @@
         <v>6.2</v>
       </c>
       <c r="H61" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="I61" t="n">
         <v>2.02</v>
       </c>
       <c r="J61" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L61" t="n">
         <v>1.3</v>
@@ -8656,7 +8656,7 @@
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -8665,7 +8665,7 @@
         <v>1.9</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R61" t="n">
         <v>1.31</v>
@@ -8677,7 +8677,7 @@
         <v>1.67</v>
       </c>
       <c r="U61" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V61" t="n">
         <v>1.98</v>
@@ -8716,10 +8716,10 @@
         <v>25</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI61" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G63" t="n">
         <v>2.14</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.18</v>
       </c>
       <c r="H63" t="n">
         <v>3.85</v>
       </c>
       <c r="I63" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J63" t="n">
         <v>3.6</v>
@@ -8926,22 +8926,22 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O63" t="n">
         <v>1.32</v>
       </c>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R63" t="n">
         <v>1.38</v>
       </c>
       <c r="S63" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T63" t="n">
         <v>1.81</v>
@@ -8953,7 +8953,7 @@
         <v>1.34</v>
       </c>
       <c r="W63" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8968,7 +8968,7 @@
         <v>75</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC63" t="n">
         <v>8</v>
@@ -8977,22 +8977,22 @@
         <v>15</v>
       </c>
       <c r="AE63" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF63" t="n">
         <v>13.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI63" t="n">
         <v>55</v>
       </c>
       <c r="AJ63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK63" t="n">
         <v>22</v>
@@ -9004,7 +9004,7 @@
         <v>100</v>
       </c>
       <c r="AN63" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO63" t="n">
         <v>46</v>
@@ -9040,10 +9040,10 @@
         <v>1.04</v>
       </c>
       <c r="G64" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I64" t="n">
         <v>1000</v>
@@ -9079,16 +9079,16 @@
         <v>2.32</v>
       </c>
       <c r="T64" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V64" t="n">
         <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="X64" t="n">
         <v>30</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="G65" t="n">
         <v>1.85</v>
       </c>
       <c r="H65" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J65" t="n">
         <v>4.2</v>
       </c>
       <c r="K65" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,22 +9196,22 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O65" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P65" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R65" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S65" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T65" t="n">
         <v>1.04</v>
@@ -9220,7 +9220,7 @@
         <v>1.04</v>
       </c>
       <c r="V65" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W65" t="n">
         <v>2.16</v>
@@ -9334,13 +9334,13 @@
         <v>1.32</v>
       </c>
       <c r="O66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P66" t="n">
         <v>1.32</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -670,19 +670,19 @@
         <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H2" t="n">
         <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -691,16 +691,16 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -709,34 +709,34 @@
         <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>14.5</v>
@@ -745,7 +745,7 @@
         <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.42</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.44</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
@@ -832,31 +832,31 @@
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
@@ -889,10 +889,10 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
         <v>30</v>
@@ -943,10 +943,10 @@
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -958,40 +958,40 @@
         <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1021,13 +1021,13 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1036,13 +1036,13 @@
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>3.2</v>
       </c>
       <c r="G5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,58 +1102,58 @@
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
@@ -1213,7 +1213,7 @@
         <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
         <v>1.34</v>
@@ -1246,7 +1246,7 @@
         <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.25</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,7 +1369,7 @@
         <v>2.18</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>2.16</v>
@@ -1378,76 +1378,76 @@
         <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
         <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.58</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
@@ -1528,7 +1528,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1537,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1549,7 +1549,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="n">
         <v>2.32</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
         <v>2.24</v>
@@ -1651,7 +1651,7 @@
         <v>1.1</v>
       </c>
       <c r="S9" t="n">
-        <v>2.24</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1663,7 +1663,7 @@
         <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1675,7 +1675,7 @@
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
         <v>980</v>
@@ -1690,13 +1690,13 @@
         <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
         <v>300</v>
@@ -1705,16 +1705,16 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1750,19 +1750,19 @@
         <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,13 +1771,13 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.79</v>
@@ -1789,16 +1789,16 @@
         <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1819,10 +1819,10 @@
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AF10" t="n">
         <v>17.5</v>
@@ -1834,25 +1834,25 @@
         <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
       </c>
       <c r="AK10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL10" t="n">
         <v>980</v>
       </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
         <v>7.2</v>
@@ -1894,7 +1894,7 @@
         <v>1.81</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>4.4</v>
@@ -1912,7 +1912,7 @@
         <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
         <v>2.06</v>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
         <v>2.22</v>
@@ -1939,19 +1939,19 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
@@ -2020,7 +2020,7 @@
         <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.44</v>
@@ -2068,7 +2068,7 @@
         <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2155,52 +2155,52 @@
         <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H13" t="n">
         <v>1.32</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
         <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="T13" t="n">
         <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="W13" t="n">
         <v>1.01</v>
@@ -2209,19 +2209,19 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G14" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -2311,34 +2311,34 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q14" t="n">
         <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
         <v>40</v>
@@ -2353,19 +2353,19 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>16.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
         <v>16</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
         <v>2.56</v>
@@ -2467,7 +2467,7 @@
         <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
         <v>1.36</v>
@@ -2482,10 +2482,10 @@
         <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2509,16 +2509,16 @@
         <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
@@ -2569,16 +2569,16 @@
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.3</v>
@@ -2587,22 +2587,22 @@
         <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
         <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.29</v>
@@ -2614,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
         <v>30</v>
@@ -2629,7 +2629,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
         <v>65</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ16" t="n">
         <v>32</v>
@@ -2659,7 +2659,7 @@
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>70</v>
@@ -2698,7 +2698,7 @@
         <v>1.12</v>
       </c>
       <c r="H17" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="I17" t="n">
         <v>44</v>
@@ -2830,10 +2830,10 @@
         <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -2857,16 +2857,16 @@
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
         <v>1.74</v>
@@ -2875,10 +2875,10 @@
         <v>2.12</v>
       </c>
       <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.51</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.52</v>
       </c>
       <c r="X18" t="n">
         <v>14</v>
@@ -2887,10 +2887,10 @@
         <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2926,7 +2926,7 @@
         <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>34</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,16 +2986,16 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
         <v>1.32</v>
@@ -3007,28 +3007,28 @@
         <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
         <v>19.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
@@ -3040,7 +3040,7 @@
         <v>50</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
@@ -3061,13 +3061,13 @@
         <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
         <v>18.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>2.66</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3145,25 +3145,25 @@
         <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
         <v>1.52</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC20" t="n">
         <v>10</v>
@@ -3175,7 +3175,7 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3262,7 +3262,7 @@
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
         <v>1.69</v>
@@ -3271,10 +3271,10 @@
         <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
         <v>2.4</v>
@@ -3289,22 +3289,22 @@
         <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AB21" t="n">
         <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>48</v>
@@ -3322,7 +3322,7 @@
         <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -3334,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO21" t="n">
         <v>38</v>
@@ -3370,16 +3370,16 @@
         <v>1.98</v>
       </c>
       <c r="G22" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
         <v>4.9</v>
@@ -3409,16 +3409,16 @@
         <v>2.72</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3442,7 +3442,7 @@
         <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="n">
         <v>19.5</v>
@@ -3454,13 +3454,13 @@
         <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ22" t="n">
         <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>40</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3508,10 +3508,10 @@
         <v>1.64</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I23" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
         <v>4.4</v>
@@ -3520,34 +3520,34 @@
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
         <v>1.19</v>
@@ -3574,10 +3574,10 @@
         <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
@@ -3586,10 +3586,10 @@
         <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
         <v>16</v>
@@ -3598,16 +3598,16 @@
         <v>15.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -3640,19 +3640,19 @@
         <v>1.71</v>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3673,7 +3673,7 @@
         <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
         <v>2.2</v>
@@ -3682,13 +3682,13 @@
         <v>1.45</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3709,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3721,16 +3721,16 @@
         <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3775,13 +3775,13 @@
         <v>3.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3811,10 +3811,10 @@
         <v>1.61</v>
       </c>
       <c r="S25" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U25" t="n">
         <v>2.64</v>
@@ -3823,7 +3823,7 @@
         <v>1.92</v>
       </c>
       <c r="W25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
@@ -3835,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="I27" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K27" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R27" t="n">
         <v>1.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
         <v>1.73</v>
@@ -4096,31 +4096,31 @@
         <v>1.12</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC27" t="n">
         <v>12.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE27" t="n">
         <v>14.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
@@ -4132,13 +4132,13 @@
         <v>28</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK27" t="n">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
         <v>95</v>
@@ -4147,7 +4147,7 @@
         <v>80</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28">
@@ -4189,7 +4189,7 @@
         <v>3.65</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="K28" t="n">
         <v>3.45</v>
@@ -4201,13 +4201,13 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
         <v>2.32</v>
@@ -4216,7 +4216,7 @@
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
         <v>1.87</v>
@@ -4225,10 +4225,10 @@
         <v>1.68</v>
       </c>
       <c r="V28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4354,10 +4354,10 @@
         <v>2.96</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
         <v>1.73</v>
@@ -4369,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>18.5</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
@@ -4399,13 +4399,13 @@
         <v>17.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
@@ -4456,13 +4456,13 @@
         <v>2.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="J30" t="n">
         <v>2.98</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,13 +4471,13 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P30" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
         <v>2.44</v>
@@ -4489,28 +4489,28 @@
         <v>4.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="n">
         <v>13.5</v>
@@ -4519,40 +4519,40 @@
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
         <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI30" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AN30" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R31" t="n">
         <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
         <v>1.69</v>
@@ -4630,10 +4630,10 @@
         <v>1.82</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G32" t="n">
         <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I32" t="n">
         <v>2.74</v>
@@ -4732,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.41</v>
@@ -4771,7 +4771,7 @@
         <v>1.39</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>10.5</v>
@@ -4783,7 +4783,7 @@
         <v>48</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
         <v>8.800000000000001</v>
@@ -4792,10 +4792,10 @@
         <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -4804,13 +4804,13 @@
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ32" t="n">
         <v>75</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="n">
         <v>75</v>
@@ -4822,7 +4822,7 @@
         <v>65</v>
       </c>
       <c r="AO32" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4861,7 +4861,7 @@
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>3.05</v>
@@ -4891,7 +4891,7 @@
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T33" t="n">
         <v>1.86</v>
@@ -5002,7 +5002,7 @@
         <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.36</v>
@@ -5035,7 +5035,7 @@
         <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W34" t="n">
         <v>2.02</v>
@@ -5056,7 +5056,7 @@
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
         <v>5.3</v>
@@ -5137,7 +5137,7 @@
         <v>3.55</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -5146,16 +5146,16 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
         <v>1.66</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
         <v>1.25</v>
@@ -5164,22 +5164,22 @@
         <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
         <v>1.15</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,34 +5188,34 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5260,10 +5260,10 @@
         <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I36" t="n">
         <v>4.3</v>
@@ -5290,7 +5290,7 @@
         <v>1.78</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R36" t="n">
         <v>1.29</v>
@@ -5305,16 +5305,16 @@
         <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5329,7 +5329,7 @@
         <v>9.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
@@ -5338,19 +5338,19 @@
         <v>16</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="G37" t="n">
         <v>1.76</v>
@@ -5404,28 +5404,28 @@
         <v>6.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P37" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
         <v>1.26</v>
@@ -5437,7 +5437,7 @@
         <v>1.89</v>
       </c>
       <c r="U37" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
         <v>1.18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G38" t="n">
         <v>2.6</v>
@@ -5545,34 +5545,34 @@
         <v>2.98</v>
       </c>
       <c r="L38" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
         <v>1.14</v>
       </c>
       <c r="N38" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P38" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R38" t="n">
         <v>1.16</v>
       </c>
       <c r="S38" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U38" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V38" t="n">
         <v>1.35</v>
@@ -5581,10 +5581,10 @@
         <v>1.62</v>
       </c>
       <c r="X38" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
         <v>23</v>
@@ -5593,25 +5593,25 @@
         <v>90</v>
       </c>
       <c r="AB38" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>7.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF38" t="n">
         <v>14</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5620,16 +5620,16 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM38" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN38" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
         <v>110</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="I39" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
         <v>3.3</v>
@@ -5692,7 +5692,7 @@
         <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q39" t="n">
         <v>2.14</v>
@@ -5710,7 +5710,7 @@
         <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="W39" t="n">
         <v>1.45</v>
@@ -5731,7 +5731,7 @@
         <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
         <v>14.5</v>
@@ -5752,13 +5752,13 @@
         <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK39" t="n">
         <v>48</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
@@ -5803,7 +5803,7 @@
         <v>3.55</v>
       </c>
       <c r="H40" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="I40" t="n">
         <v>2.58</v>
@@ -5860,7 +5860,7 @@
         <v>15.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB40" t="n">
         <v>10.5</v>
@@ -5872,25 +5872,25 @@
         <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="n">
         <v>18</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -5935,7 +5935,7 @@
         <v>2.56</v>
       </c>
       <c r="G41" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
@@ -5956,7 +5956,7 @@
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O41" t="n">
         <v>1.42</v>
@@ -6004,19 +6004,19 @@
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
         <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6025,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>
@@ -6109,7 +6109,7 @@
         <v>2.14</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U42" t="n">
         <v>1.04</v>
@@ -6127,7 +6127,7 @@
         <v>42</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6214,34 +6214,34 @@
         <v>3.35</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
         <v>1.91</v>
@@ -6253,49 +6253,49 @@
         <v>1.42</v>
       </c>
       <c r="W43" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG43" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH43" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
@@ -6340,7 +6340,7 @@
         <v>2.6</v>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
         <v>2.3</v>
@@ -6388,7 +6388,7 @@
         <v>1.62</v>
       </c>
       <c r="W44" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G45" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="J45" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
         <v>4.4</v>
@@ -6502,10 +6502,10 @@
         <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R45" t="n">
         <v>1.61</v>
@@ -6514,10 +6514,10 @@
         <v>2.14</v>
       </c>
       <c r="T45" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="U45" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="V45" t="n">
         <v>1.01</v>
@@ -6562,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK45" t="n">
         <v>36</v>
@@ -6571,13 +6571,13 @@
         <v>42</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="46">
@@ -6622,7 +6622,7 @@
         <v>3.95</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.12</v>
@@ -6631,28 +6631,28 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R46" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="U46" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="V46" t="n">
         <v>1.9</v>
@@ -6661,38 +6661,38 @@
         <v>1.33</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y46" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
         <v>29</v>
       </c>
-      <c r="AC46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AH46" t="n">
         <v>26</v>
       </c>
-      <c r="AF46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>23</v>
-      </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I47" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J47" t="n">
         <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L47" t="n">
         <v>1.23</v>
@@ -6796,10 +6796,10 @@
         <v>1.23</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z47" t="n">
         <v>17.5</v>
@@ -6808,13 +6808,13 @@
         <v>22</v>
       </c>
       <c r="AB47" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AC47" t="n">
         <v>11.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE47" t="n">
         <v>18</v>
@@ -6823,10 +6823,10 @@
         <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AH47" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
         <v>32</v>
@@ -6847,7 +6847,7 @@
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6901,22 +6901,22 @@
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P48" t="n">
         <v>3.2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R48" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="S48" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="T48" t="n">
         <v>1.44</v>
@@ -6925,10 +6925,10 @@
         <v>2.92</v>
       </c>
       <c r="V48" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W48" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -6967,16 +6967,16 @@
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="n">
         <v>21</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
         <v>7.6</v>
@@ -7018,16 +7018,16 @@
         <v>2.34</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J49" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K49" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,16 +7036,16 @@
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O49" t="n">
         <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="R49" t="n">
         <v>1.53</v>
@@ -7054,13 +7054,13 @@
         <v>2.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U49" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W49" t="n">
         <v>1.74</v>
@@ -7072,10 +7072,10 @@
         <v>21</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB49" t="n">
         <v>17</v>
@@ -7084,7 +7084,7 @@
         <v>11.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE49" t="n">
         <v>40</v>
@@ -7096,19 +7096,19 @@
         <v>14</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK49" t="n">
         <v>26</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
@@ -7117,7 +7117,7 @@
         <v>15</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -7180,7 +7180,7 @@
         <v>3.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R50" t="n">
         <v>2</v>
@@ -7201,13 +7201,13 @@
         <v>2.04</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="Y50" t="n">
         <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
@@ -7222,7 +7222,7 @@
         <v>22</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF50" t="n">
         <v>23</v>
@@ -7237,7 +7237,7 @@
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="n">
         <v>21</v>
@@ -7246,7 +7246,7 @@
         <v>26</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="n">
         <v>7.2</v>
@@ -7345,7 +7345,7 @@
         <v>30</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AB51" t="n">
         <v>15.5</v>
@@ -7381,13 +7381,13 @@
         <v>36</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
         <v>14</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -7420,7 +7420,7 @@
         <v>2.26</v>
       </c>
       <c r="G52" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>2.12</v>
@@ -7429,7 +7429,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K52" t="n">
         <v>4.4</v>
@@ -7564,7 +7564,7 @@
         <v>3.95</v>
       </c>
       <c r="J53" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K53" t="n">
         <v>4</v>
@@ -7588,10 +7588,10 @@
         <v>1.73</v>
       </c>
       <c r="R53" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S53" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T53" t="n">
         <v>1.05</v>
@@ -7693,10 +7693,10 @@
         <v>4.9</v>
       </c>
       <c r="H54" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I54" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -7723,13 +7723,13 @@
         <v>1.61</v>
       </c>
       <c r="R54" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S54" t="n">
         <v>2.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U54" t="n">
         <v>1.04</v>
@@ -7744,34 +7744,34 @@
         <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC54" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF54" t="n">
         <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H55" t="n">
         <v>5.4</v>
@@ -7834,73 +7834,73 @@
         <v>5.8</v>
       </c>
       <c r="J55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K55" t="n">
         <v>3.75</v>
       </c>
-      <c r="K55" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L55" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q55" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T55" t="n">
         <v>2.04</v>
       </c>
-      <c r="R55" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U55" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V55" t="n">
         <v>1.2</v>
       </c>
       <c r="W55" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X55" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z55" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA55" t="n">
         <v>170</v>
       </c>
       <c r="AB55" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE55" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF55" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG55" t="n">
         <v>10</v>
@@ -7909,25 +7909,25 @@
         <v>23</v>
       </c>
       <c r="AI55" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ55" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL55" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN55" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="G56" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
         <v>4</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="G57" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I57" t="n">
         <v>5.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K57" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,16 +8116,16 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
         <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R57" t="n">
         <v>1.3</v>
@@ -8143,7 +8143,7 @@
         <v>1.22</v>
       </c>
       <c r="W57" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8188,7 +8188,7 @@
         <v>27</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
@@ -8227,58 +8227,58 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H58" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I58" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J58" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K58" t="n">
         <v>3.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M58" t="n">
         <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="P58" t="n">
         <v>1.42</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R58" t="n">
         <v>1.18</v>
       </c>
       <c r="S58" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T58" t="n">
         <v>1.04</v>
       </c>
       <c r="U58" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="V58" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8296,7 +8296,7 @@
         <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD58" t="n">
         <v>1000</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G59" t="n">
         <v>2.98</v>
@@ -8371,16 +8371,16 @@
         <v>2.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
@@ -8392,19 +8392,19 @@
         <v>1.28</v>
       </c>
       <c r="P59" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="R59" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="S59" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="T59" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U59" t="n">
         <v>1.04</v>
@@ -8431,7 +8431,7 @@
         <v>1000</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD59" t="n">
         <v>1000</v>
@@ -8500,7 +8500,7 @@
         <v>1.77</v>
       </c>
       <c r="G60" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H60" t="n">
         <v>5.4</v>
@@ -8509,88 +8509,88 @@
         <v>6</v>
       </c>
       <c r="J60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K60" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L60" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O60" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P60" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R60" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S60" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U60" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V60" t="n">
         <v>1.2</v>
       </c>
       <c r="W60" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X60" t="n">
         <v>15.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA60" t="n">
         <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD60" t="n">
         <v>55</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF60" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>55</v>
       </c>
-      <c r="AI60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK60" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL60" t="n">
         <v>1000</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G61" t="n">
         <v>2.62</v>
       </c>
       <c r="H61" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I61" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K61" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.85</v>
       </c>
       <c r="L61" t="n">
         <v>1.29</v>
@@ -8656,7 +8656,7 @@
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O61" t="n">
         <v>1.22</v>
@@ -8671,25 +8671,25 @@
         <v>1.58</v>
       </c>
       <c r="S61" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T61" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U61" t="n">
         <v>2.66</v>
       </c>
       <c r="V61" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W61" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X61" t="n">
         <v>21</v>
       </c>
       <c r="Y61" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z61" t="n">
         <v>21</v>
@@ -8704,13 +8704,13 @@
         <v>8.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE61" t="n">
         <v>26</v>
       </c>
       <c r="AF61" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG61" t="n">
         <v>12</v>
@@ -8770,13 +8770,13 @@
         <v>1.99</v>
       </c>
       <c r="G62" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I62" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>3.65</v>
@@ -8788,10 +8788,10 @@
         <v>1.01</v>
       </c>
       <c r="M62" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O62" t="n">
         <v>1.25</v>
@@ -8809,16 +8809,16 @@
         <v>2.88</v>
       </c>
       <c r="T62" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U62" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V62" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W62" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X62" t="n">
         <v>19</v>
@@ -8827,13 +8827,13 @@
         <v>16.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA62" t="n">
         <v>1000</v>
       </c>
       <c r="AB62" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC62" t="n">
         <v>9.4</v>
@@ -8842,7 +8842,7 @@
         <v>16</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF62" t="n">
         <v>15</v>
@@ -8857,7 +8857,7 @@
         <v>1000</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK62" t="n">
         <v>22</v>
@@ -8866,7 +8866,7 @@
         <v>1000</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN62" t="n">
         <v>13.5</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
       <c r="G63" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="I63" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="J63" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K63" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,34 +8926,34 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="O63" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P63" t="n">
         <v>1.43</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R63" t="n">
         <v>1.18</v>
       </c>
       <c r="S63" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U63" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V63" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="W63" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -8965,13 +8965,13 @@
         <v>1000</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB63" t="n">
         <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD63" t="n">
         <v>1000</v>
@@ -8992,7 +8992,7 @@
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK63" t="n">
         <v>1000</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I64" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J64" t="n">
         <v>3.9</v>
@@ -9076,22 +9076,22 @@
         <v>1.5</v>
       </c>
       <c r="S64" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T64" t="n">
         <v>1.68</v>
       </c>
       <c r="U64" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V64" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W64" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y64" t="n">
         <v>11.5</v>
@@ -9112,13 +9112,13 @@
         <v>10.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF64" t="n">
         <v>30</v>
       </c>
       <c r="AG64" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH64" t="n">
         <v>16.5</v>
@@ -9133,7 +9133,7 @@
         <v>44</v>
       </c>
       <c r="AL64" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM64" t="n">
         <v>75</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I65" t="n">
         <v>1.99</v>
@@ -9187,7 +9187,7 @@
         <v>3.6</v>
       </c>
       <c r="K65" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L65" t="n">
         <v>1.3</v>
@@ -9196,7 +9196,7 @@
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>2.88</v>
+        <v>1.1</v>
       </c>
       <c r="O65" t="n">
         <v>1.29</v>
@@ -9205,7 +9205,7 @@
         <v>1.92</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="R65" t="n">
         <v>1.33</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9265,10 +9265,10 @@
         <v>1000</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL65" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM65" t="n">
         <v>1000</v>
@@ -9307,31 +9307,31 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="G66" t="n">
         <v>6.4</v>
       </c>
       <c r="H66" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I66" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="J66" t="n">
         <v>3.4</v>
       </c>
       <c r="K66" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N66" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="O66" t="n">
         <v>1.31</v>
@@ -9340,7 +9340,7 @@
         <v>1.74</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R66" t="n">
         <v>1.3</v>
@@ -9355,7 +9355,7 @@
         <v>1.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="W66" t="n">
         <v>1.19</v>
@@ -9376,7 +9376,7 @@
         <v>1000</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD66" t="n">
         <v>1000</v>
@@ -9442,61 +9442,61 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G67" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H67" t="n">
         <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K67" t="n">
         <v>3.65</v>
       </c>
-      <c r="K67" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L67" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P67" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R67" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S67" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T67" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U67" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V67" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W67" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X67" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y67" t="n">
         <v>14.5</v>
@@ -9508,34 +9508,34 @@
         <v>75</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC67" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD67" t="n">
         <v>15</v>
       </c>
       <c r="AE67" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG67" t="n">
         <v>10.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ67" t="n">
         <v>26</v>
       </c>
       <c r="AK67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL67" t="n">
         <v>38</v>
@@ -9544,10 +9544,10 @@
         <v>100</v>
       </c>
       <c r="AN67" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO67" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
@@ -9580,7 +9580,7 @@
         <v>1.95</v>
       </c>
       <c r="G68" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="H68" t="n">
         <v>2.9</v>
@@ -9592,7 +9592,7 @@
         <v>3.85</v>
       </c>
       <c r="K68" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9601,7 +9601,7 @@
         <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O68" t="n">
         <v>1.2</v>
@@ -9613,7 +9613,7 @@
         <v>1.56</v>
       </c>
       <c r="R68" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S68" t="n">
         <v>2.42</v>
@@ -9628,13 +9628,13 @@
         <v>1.29</v>
       </c>
       <c r="W68" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X68" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z68" t="n">
         <v>50</v>
@@ -9652,7 +9652,7 @@
         <v>25</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF68" t="n">
         <v>19</v>
@@ -9664,7 +9664,7 @@
         <v>25</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ68" t="n">
         <v>30</v>
@@ -9676,13 +9676,13 @@
         <v>44</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN68" t="n">
         <v>13.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -9715,10 +9715,10 @@
         <v>1.45</v>
       </c>
       <c r="G69" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H69" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I69" t="n">
         <v>10.5</v>
@@ -9745,7 +9745,7 @@
         <v>2.52</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9850,10 +9850,10 @@
         <v>2.22</v>
       </c>
       <c r="G70" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="H70" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="I70" t="n">
         <v>3.3</v>
@@ -9880,7 +9880,7 @@
         <v>1.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9982,19 +9982,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="G71" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="H71" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="J71" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
         <v>4.2</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q71" t="n">
         <v>1.6</v>
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G72" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>2.82</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J72" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K72" t="n">
         <v>3.65</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q72" t="n">
         <v>2.04</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="G73" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="I73" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="J73" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="K73" t="n">
         <v>1000</v>
@@ -10279,19 +10279,19 @@
         <v>2.82</v>
       </c>
       <c r="O73" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P73" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R73" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S73" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="T73" t="n">
         <v>1.04</v>
@@ -10300,10 +10300,10 @@
         <v>1.04</v>
       </c>
       <c r="V73" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="W73" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10390,10 +10390,10 @@
         <v>1.69</v>
       </c>
       <c r="G74" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I74" t="n">
         <v>7</v>
@@ -10549,13 +10549,13 @@
         <v>1.32</v>
       </c>
       <c r="O75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P75" t="n">
         <v>1.32</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R75" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM2" t="n">
         <v>55</v>
       </c>
-      <c r="AK2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>70</v>
-      </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
         <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>42</v>
       </c>
       <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>970</v>
       </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>230</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>980</v>
       </c>
-      <c r="AI3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>970</v>
-      </c>
       <c r="AO3" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>3.65</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,76 +964,76 @@
         <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
         <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1084,40 +1084,40 @@
         <v>1.28</v>
       </c>
       <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
         <v>5.8</v>
       </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.7</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
         <v>4.4</v>
@@ -1126,13 +1126,13 @@
         <v>1.05</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>9.800000000000001</v>
@@ -1141,19 +1141,19 @@
         <v>60</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD5" t="n">
         <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
         <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.57</v>
@@ -1234,31 +1234,31 @@
         <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R6" t="n">
         <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
         <v>9.4</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
@@ -1303,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1366,16 +1366,16 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
@@ -1384,25 +1384,25 @@
         <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
         <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
         <v>95</v>
@@ -1417,7 +1417,7 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
         <v>200</v>
       </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1612,82 +1612,82 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.05</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
         <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1696,13 +1696,13 @@
         <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
         <v>85</v>
@@ -1711,13 +1711,13 @@
         <v>220</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="J10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1825,7 +1825,7 @@
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1834,19 +1834,19 @@
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1909,7 +1909,7 @@
         <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
         <v>1.72</v>
@@ -1927,10 +1927,10 @@
         <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="W11" t="n">
         <v>1.17</v>
@@ -1939,22 +1939,22 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
         <v>17.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -1963,19 +1963,19 @@
         <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="n">
         <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
         <v>130</v>
@@ -1987,7 +1987,7 @@
         <v>200</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>1.29</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H12" t="n">
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
         <v>7</v>
@@ -2041,37 +2041,37 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.08</v>
       </c>
       <c r="W12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
         <v>55</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2182,22 +2182,22 @@
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
@@ -2212,49 +2212,49 @@
         <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF13" t="n">
         <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,10 +2290,10 @@
         <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
         <v>4.4</v>
@@ -2317,10 +2317,10 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
@@ -2329,7 +2329,7 @@
         <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
         <v>1.99</v>
@@ -2338,7 +2338,7 @@
         <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2353,10 +2353,10 @@
         <v>90</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>17.5</v>
@@ -2365,7 +2365,7 @@
         <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2374,13 +2374,13 @@
         <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>44</v>
@@ -2389,10 +2389,10 @@
         <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2446,19 +2446,19 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
         <v>3.45</v>
@@ -2467,7 +2467,7 @@
         <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2518,16 +2518,16 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
         <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.41</v>
@@ -2587,10 +2587,10 @@
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
         <v>1.37</v>
@@ -2605,13 +2605,13 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
         <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
         <v>15</v>
@@ -2632,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
         <v>23</v>
@@ -2659,10 +2659,10 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2695,55 +2695,55 @@
         <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
         <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
         <v>90</v>
@@ -2755,13 +2755,13 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
@@ -2770,13 +2770,13 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
         <v>28</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2788,16 +2788,16 @@
         <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
@@ -2848,7 +2848,7 @@
         <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>4.5</v>
@@ -2860,16 +2860,16 @@
         <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
@@ -2881,10 +2881,10 @@
         <v>2.6</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
@@ -2893,7 +2893,7 @@
         <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
         <v>9.800000000000001</v>
@@ -2914,7 +2914,7 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -2926,13 +2926,13 @@
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2962,88 +2962,88 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K19" t="n">
         <v>4</v>
       </c>
-      <c r="K19" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="n">
         <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16</v>
@@ -3055,19 +3055,19 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H20" t="n">
         <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>1.38</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
@@ -3130,16 +3130,16 @@
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
         <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
         <v>2.22</v>
@@ -3148,7 +3148,7 @@
         <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X20" t="n">
         <v>29</v>
@@ -3157,7 +3157,7 @@
         <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,10 +3169,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
@@ -3187,10 +3187,10 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>100</v>
@@ -3199,10 +3199,10 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K21" t="n">
         <v>5.5</v>
@@ -3259,61 +3259,61 @@
         <v>5.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T21" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="W21" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="X21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD21" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF21" t="n">
         <v>75</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -3322,22 +3322,22 @@
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK21" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3505,19 +3505,19 @@
         <v>1.79</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J23" t="n">
         <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.31</v>
@@ -3526,40 +3526,40 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,31 +3580,31 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,70 +3637,70 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.08</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.12</v>
-      </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
         <v>2.52</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.6</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB24" t="n">
         <v>22</v>
@@ -3712,13 +3712,13 @@
         <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF24" t="n">
         <v>32</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
@@ -3727,22 +3727,22 @@
         <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>2.02</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -3790,34 +3790,34 @@
         <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.55</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
         <v>1.26</v>
@@ -3826,55 +3826,55 @@
         <v>1.98</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,40 +3907,40 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
         <v>1.79</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
         <v>1.3</v>
@@ -3955,37 +3955,37 @@
         <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
         <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>40</v>
@@ -4003,7 +4003,7 @@
         <v>75</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4045,19 +4045,19 @@
         <v>1.64</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.47</v>
@@ -4069,7 +4069,7 @@
         <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
         <v>1.77</v>
@@ -4081,25 +4081,25 @@
         <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>1.15</v>
       </c>
       <c r="W27" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,43 +4108,43 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,34 +4177,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="G28" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
         <v>1.78</v>
@@ -4219,58 +4219,58 @@
         <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,31 +4312,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -4354,19 +4354,19 @@
         <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
         <v>42</v>
@@ -4393,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4402,7 +4402,7 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H30" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="I30" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.46</v>
@@ -4471,40 +4471,40 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
         <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC30" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4525,31 +4525,31 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H31" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4609,85 +4609,85 @@
         <v>2.84</v>
       </c>
       <c r="O31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -4717,103 +4717,103 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="I32" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>3.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
         <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="W32" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
         <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA32" t="n">
         <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH32" t="n">
         <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
-        <v>320</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I33" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
         <v>1.57</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
         <v>2.74</v>
       </c>
       <c r="O33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P33" t="n">
         <v>1.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R33" t="n">
         <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W33" t="n">
         <v>1.33</v>
       </c>
       <c r="X33" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z33" t="n">
         <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="AJ33" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN33" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AO33" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
         <v>2.18</v>
@@ -5005,7 +5005,7 @@
         <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5029,7 +5029,7 @@
         <v>3.15</v>
       </c>
       <c r="T34" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U34" t="n">
         <v>2.24</v>
@@ -5038,7 +5038,7 @@
         <v>1.76</v>
       </c>
       <c r="W34" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X34" t="n">
         <v>17.5</v>
@@ -5080,13 +5080,13 @@
         <v>900</v>
       </c>
       <c r="AK34" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
         <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G35" t="n">
         <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I35" t="n">
         <v>3.7</v>
@@ -5137,7 +5137,7 @@
         <v>2.94</v>
       </c>
       <c r="K35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
         <v>1.66</v>
@@ -5146,13 +5146,13 @@
         <v>1.15</v>
       </c>
       <c r="N35" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="O35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q35" t="n">
         <v>3</v>
@@ -5161,13 +5161,13 @@
         <v>1.16</v>
       </c>
       <c r="S35" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T35" t="n">
         <v>2.24</v>
       </c>
       <c r="U35" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
         <v>1.37</v>
@@ -5179,7 +5179,7 @@
         <v>7.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z35" t="n">
         <v>70</v>
@@ -5191,28 +5191,28 @@
         <v>7.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD35" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE35" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
         <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="n">
         <v>42</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO35" t="n">
         <v>360</v>
@@ -5257,100 +5257,100 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U36" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="W36" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA36" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK36" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -5359,10 +5359,10 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G37" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
         <v>3.2</v>
@@ -5416,16 +5416,16 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5437,67 +5437,67 @@
         <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="W37" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X37" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
         <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF37" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AG37" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH37" t="n">
         <v>22</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="G38" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
@@ -5545,28 +5545,28 @@
         <v>3.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P38" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S38" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T38" t="n">
         <v>1.94</v>
@@ -5575,64 +5575,64 @@
         <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG38" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK38" t="n">
         <v>38</v>
       </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL38" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G39" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H39" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="K39" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.29</v>
@@ -5686,85 +5686,85 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R39" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U39" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="X39" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL39" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,85 +5797,85 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G40" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
         <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R40" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V40" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W40" t="n">
         <v>1.58</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>9.6</v>
       </c>
       <c r="AC40" t="n">
         <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="G41" t="n">
         <v>2.84</v>
       </c>
       <c r="H41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U41" t="n">
         <v>2.68</v>
       </c>
-      <c r="Q41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.52</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W41" t="n">
         <v>1.54</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
         <v>4.3</v>
@@ -6085,94 +6085,94 @@
         <v>4.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="n">
-        <v>1.9</v>
-      </c>
       <c r="T42" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X42" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
         <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
         <v>25</v>
       </c>
-      <c r="AC42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>23</v>
-      </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T43" t="n">
         <v>1.57</v>
       </c>
       <c r="U43" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W43" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
         <v>90</v>
@@ -6262,16 +6262,16 @@
         <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC43" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AD43" t="n">
         <v>40</v>
@@ -6280,16 +6280,16 @@
         <v>34</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
         <v>16.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -6337,64 +6337,64 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.4</v>
       </c>
-      <c r="H44" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U44" t="n">
         <v>2.36</v>
       </c>
-      <c r="T44" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
         <v>29</v>
@@ -6403,28 +6403,28 @@
         <v>75</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD44" t="n">
         <v>11</v>
       </c>
-      <c r="AD44" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE44" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="n">
         <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AH44" t="n">
         <v>26</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
         <v>1000</v>
@@ -6442,7 +6442,7 @@
         <v>250</v>
       </c>
       <c r="AO44" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G45" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H45" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
         <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K45" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>1.23</v>
@@ -6496,22 +6496,22 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="n">
         <v>1.39</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S45" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T45" t="n">
         <v>1.45</v>
@@ -6520,16 +6520,16 @@
         <v>2.92</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W45" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z45" t="n">
         <v>1000</v>
@@ -6550,10 +6550,10 @@
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>18.5</v>
@@ -6562,22 +6562,22 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
         <v>21</v>
       </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO45" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
@@ -6610,10 +6610,10 @@
         <v>2.24</v>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
         <v>3.45</v>
@@ -6634,37 +6634,37 @@
         <v>4.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R46" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S46" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T46" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U46" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V46" t="n">
         <v>1.4</v>
       </c>
       <c r="W46" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="n">
         <v>32</v>
@@ -6673,22 +6673,22 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD46" t="n">
         <v>17</v>
       </c>
       <c r="AE46" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
         <v>20</v>
       </c>
       <c r="AG46" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
         <v>19</v>
@@ -6700,7 +6700,7 @@
         <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AL46" t="n">
         <v>1000</v>
@@ -6745,16 +6745,16 @@
         <v>2.02</v>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H47" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
         <v>3.95</v>
       </c>
       <c r="J47" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
         <v>4.2</v>
@@ -6772,16 +6772,16 @@
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
         <v>1.56</v>
       </c>
       <c r="S47" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T47" t="n">
         <v>1.61</v>
@@ -6793,61 +6793,61 @@
         <v>1.34</v>
       </c>
       <c r="W47" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X47" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y47" t="n">
         <v>20</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA47" t="n">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF47" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AG47" t="n">
         <v>11</v>
       </c>
-      <c r="AD47" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13</v>
-      </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK47" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G48" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="H48" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="I48" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="J48" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L48" t="n">
         <v>1.28</v>
@@ -6901,7 +6901,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
@@ -6916,19 +6916,19 @@
         <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U48" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V48" t="n">
         <v>1.48</v>
       </c>
       <c r="W48" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X48" t="n">
         <v>85</v>
@@ -6940,7 +6940,7 @@
         <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
         <v>38</v>
@@ -6979,10 +6979,10 @@
         <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AO48" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G49" t="n">
         <v>2.8</v>
@@ -7021,13 +7021,13 @@
         <v>2.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
         <v>3.85</v>
       </c>
       <c r="K49" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L49" t="n">
         <v>1.27</v>
@@ -7036,88 +7036,88 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O49" t="n">
         <v>1.16</v>
       </c>
       <c r="P49" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T49" t="n">
         <v>1.5</v>
       </c>
-      <c r="R49" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.41</v>
-      </c>
       <c r="U49" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="V49" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W49" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -7147,64 +7147,64 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>1.39</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R50" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T50" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="U50" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V50" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W50" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y50" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Z50" t="n">
         <v>70</v>
@@ -7213,46 +7213,46 @@
         <v>900</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF50" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AG50" t="n">
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51">
@@ -7282,52 +7282,52 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.4</v>
-      </c>
-      <c r="G51" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.6</v>
       </c>
       <c r="L51" t="n">
         <v>1.34</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
         <v>4.6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P51" t="n">
         <v>2.24</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R51" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S51" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T51" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U51" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V51" t="n">
         <v>2.16</v>
@@ -7339,34 +7339,34 @@
         <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z51" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AA51" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AD51" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7375,10 +7375,10 @@
         <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G52" t="n">
         <v>1.84</v>
       </c>
       <c r="H52" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I52" t="n">
         <v>5.7</v>
       </c>
       <c r="J52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K52" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.75</v>
       </c>
       <c r="L52" t="n">
         <v>1.48</v>
@@ -7441,19 +7441,19 @@
         <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="n">
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q52" t="n">
         <v>2.24</v>
       </c>
       <c r="R52" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S52" t="n">
         <v>4.2</v>
@@ -7474,13 +7474,13 @@
         <v>11.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z52" t="n">
         <v>42</v>
       </c>
       <c r="AA52" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB52" t="n">
         <v>7.4</v>
@@ -7516,7 +7516,7 @@
         <v>46</v>
       </c>
       <c r="AM52" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
         <v>15.5</v>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>2.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="J53" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K53" t="n">
         <v>4</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O53" t="n">
         <v>1.19</v>
@@ -7687,58 +7687,58 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H54" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J54" t="n">
         <v>4.1</v>
       </c>
       <c r="K54" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R54" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S54" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V54" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W54" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7747,16 +7747,16 @@
         <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AD54" t="n">
         <v>130</v>
@@ -7765,7 +7765,7 @@
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AG54" t="n">
         <v>10</v>
@@ -7780,10 +7780,10 @@
         <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
@@ -7822,52 +7822,52 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="G55" t="n">
         <v>2.98</v>
       </c>
       <c r="H55" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="I55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="U55" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
         <v>1.46</v>
@@ -7876,58 +7876,58 @@
         <v>1.5</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
         <v>42</v>
       </c>
-      <c r="AD55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="G56" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>2.98</v>
       </c>
       <c r="I56" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J56" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="K56" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
         <v>1.65</v>
@@ -7990,55 +7990,55 @@
         <v>1.45</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.98</v>
+        <v>2.8</v>
       </c>
       <c r="R56" t="n">
         <v>1.18</v>
       </c>
       <c r="S56" t="n">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="U56" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W56" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC56" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF56" t="n">
         <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH56" t="n">
         <v>1000</v>
@@ -8050,7 +8050,7 @@
         <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AL56" t="n">
         <v>1000</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="G57" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H57" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I57" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J57" t="n">
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
@@ -8116,34 +8116,34 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U57" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W57" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X57" t="n">
         <v>15.5</v>
@@ -8164,13 +8164,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD57" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AE57" t="n">
         <v>420</v>
       </c>
       <c r="AF57" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG57" t="n">
         <v>10.5</v>
@@ -8182,19 +8182,19 @@
         <v>330</v>
       </c>
       <c r="AJ57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK57" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G58" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H58" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I58" t="n">
         <v>2.78</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.8</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
@@ -8248,40 +8248,40 @@
         <v>1.32</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
         <v>5.3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P58" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
         <v>1.58</v>
       </c>
       <c r="S58" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T58" t="n">
         <v>1.57</v>
       </c>
       <c r="U58" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V58" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W58" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y58" t="n">
         <v>15.5</v>
@@ -8299,16 +8299,16 @@
         <v>8.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE58" t="n">
         <v>26</v>
       </c>
       <c r="AF58" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
         <v>14</v>
@@ -8332,7 +8332,7 @@
         <v>16</v>
       </c>
       <c r="AO58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -8362,112 +8362,112 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M59" t="n">
         <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P59" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="R59" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S59" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T59" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="V59" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W59" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="X59" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD59" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE59" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH59" t="n">
         <v>17.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK59" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AL59" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60">
@@ -8497,112 +8497,112 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H60" t="n">
-        <v>1.48</v>
+        <v>2.54</v>
       </c>
       <c r="I60" t="n">
-        <v>980</v>
+        <v>2.8</v>
       </c>
       <c r="J60" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="L60" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P60" t="n">
         <v>1.56</v>
       </c>
-      <c r="M60" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q60" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="R60" t="n">
         <v>1.21</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T60" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U60" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V60" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="W60" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X60" t="n">
-        <v>19.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y60" t="n">
-        <v>70</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z60" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="AA60" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>960</v>
+        <v>13</v>
       </c>
       <c r="AE60" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AF60" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG60" t="n">
-        <v>960</v>
+        <v>14.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>240</v>
+      </c>
+      <c r="AM60" t="n">
         <v>170</v>
       </c>
-      <c r="AL60" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN60" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO60" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="G61" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H61" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="I61" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="J61" t="n">
         <v>3.9</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L61" t="n">
         <v>1.35</v>
@@ -8656,52 +8656,52 @@
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P61" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R61" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S61" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T61" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U61" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V61" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W61" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X61" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB61" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y61" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC61" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD61" t="n">
         <v>10.5</v>
@@ -8710,34 +8710,34 @@
         <v>19</v>
       </c>
       <c r="AF61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ61" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK61" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN61" t="n">
         <v>40</v>
       </c>
-      <c r="AL61" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>32</v>
-      </c>
       <c r="AO61" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="62">
@@ -8773,106 +8773,106 @@
         <v>4.6</v>
       </c>
       <c r="H62" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="J62" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K62" t="n">
         <v>4.1</v>
       </c>
       <c r="L62" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O62" t="n">
         <v>1.29</v>
       </c>
       <c r="P62" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R62" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S62" t="n">
         <v>3.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="U62" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W62" t="n">
         <v>1.27</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z62" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE62" t="n">
         <v>22</v>
       </c>
-      <c r="AC62" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>28</v>
-      </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG62" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AH62" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI62" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ62" t="n">
         <v>1000</v>
       </c>
       <c r="AK62" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AL62" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AM62" t="n">
         <v>1000</v>
       </c>
       <c r="AN62" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="AO62" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="63">
@@ -8902,92 +8902,92 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="G63" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="H63" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J63" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L63" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="R63" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="S63" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T63" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U63" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="W63" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB63" t="n">
         <v>1000</v>
       </c>
       <c r="AC63" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH63" t="n">
         <v>42</v>
       </c>
-      <c r="AD63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI63" t="n">
         <v>1000</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1000</v>
       </c>
       <c r="AO63" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
@@ -9043,10 +9043,10 @@
         <v>2.12</v>
       </c>
       <c r="H64" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
         <v>3.65</v>
@@ -9064,28 +9064,28 @@
         <v>4.1</v>
       </c>
       <c r="O64" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P64" t="n">
         <v>2.06</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R64" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S64" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T64" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U64" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V64" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W64" t="n">
         <v>1.89</v>
@@ -9094,10 +9094,10 @@
         <v>14.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA64" t="n">
         <v>75</v>
@@ -9109,7 +9109,7 @@
         <v>8</v>
       </c>
       <c r="AD64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE64" t="n">
         <v>44</v>
@@ -9130,19 +9130,19 @@
         <v>25</v>
       </c>
       <c r="AK64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL64" t="n">
         <v>36</v>
       </c>
       <c r="AM64" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN64" t="n">
         <v>14.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
@@ -9172,112 +9172,112 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G65" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="H65" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="I65" t="n">
         <v>4.4</v>
       </c>
       <c r="J65" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="O65" t="n">
         <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R65" t="n">
         <v>1.58</v>
       </c>
-      <c r="R65" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S65" t="n">
-        <v>1.94</v>
+        <v>2.44</v>
       </c>
       <c r="T65" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U65" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V65" t="n">
         <v>1.29</v>
       </c>
       <c r="W65" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="X65" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y65" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z65" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD65" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AE65" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF65" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD65" t="n">
+      <c r="AG65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK65" t="n">
         <v>25</v>
       </c>
-      <c r="AE65" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>26</v>
-      </c>
       <c r="AL65" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO65" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="G66" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I66" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>2.58</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9445,13 +9445,13 @@
         <v>2.58</v>
       </c>
       <c r="G67" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H67" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="I67" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J67" t="n">
         <v>3.6</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q67" t="n">
         <v>1.79</v>
@@ -9586,13 +9586,13 @@
         <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J68" t="n">
         <v>3.85</v>
       </c>
       <c r="K68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H69" t="n">
         <v>3.15</v>
       </c>
       <c r="I69" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J69" t="n">
         <v>3.15</v>
       </c>
       <c r="K69" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G70" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="H70" t="n">
         <v>5.7</v>
@@ -9859,10 +9859,10 @@
         <v>5.8</v>
       </c>
       <c r="J70" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K70" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L70" t="n">
         <v>1.3</v>
@@ -9871,34 +9871,34 @@
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V70" t="n">
         <v>1.21</v>
       </c>
-      <c r="P70" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W70" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G71" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="H71" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I71" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K71" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q71" t="n">
         <v>2.04</v>
@@ -10117,58 +10117,58 @@
         </is>
       </c>
       <c r="F72" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M72" t="n">
         <v>1.04</v>
       </c>
-      <c r="G72" t="n">
-        <v>600</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I72" t="n">
-        <v>980</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K72" t="n">
-        <v>950</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.02</v>
-      </c>
       <c r="N72" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P72" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="R72" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S72" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="T72" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U72" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V72" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="W72" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,58 +727,58 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>1.08</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>550</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>680</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>120</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>1.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Puszcza Niepolomice</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>1.04</v>
       </c>
       <c r="H4" t="n">
-        <v>1.38</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.41</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>990</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,94 +961,94 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>2.24</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,43 +1231,43 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,40 +1276,40 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,34 +1366,34 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>85</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,52 +1408,52 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>230</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Zalaegerszeg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>13.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>1.98</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>2.04</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>5.6</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>1.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>27</v>
       </c>
       <c r="R8" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>110</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>2.36</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="I9" t="n">
-        <v>1.97</v>
+        <v>1.38</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.02</v>
+        <v>3.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>2.38</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>6.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hoffenheim II</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>1.87</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>1.92</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>5.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH10" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16</v>
-      </c>
       <c r="AI10" t="n">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>960</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,72 +1868,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kfum Oslo</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>1.11</v>
       </c>
       <c r="G11" t="n">
-        <v>8.6</v>
+        <v>1.13</v>
       </c>
       <c r="H11" t="n">
-        <v>1.42</v>
+        <v>90</v>
       </c>
       <c r="I11" t="n">
-        <v>1.43</v>
+        <v>130</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.68</v>
       </c>
       <c r="P11" t="n">
-        <v>5.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.04</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>19.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>4.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,22 +1948,22 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>990</v>
@@ -1972,10 +1972,10 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.95</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.36</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.72</v>
+        <v>5.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7</v>
+        <v>28</v>
       </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.41</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="X12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>2.16</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>55</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>180</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>15.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>4.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE13" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>80</v>
-      </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.96</v>
+        <v>4.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2.98</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>2.58</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>2.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>20</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="X14" t="n">
-        <v>9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AF14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>500</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>16.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>19.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>1.44</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>1.47</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V15" t="n">
         <v>3.15</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="X15" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>750</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>960</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>5.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>2.16</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>1.72</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>2.36</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>18</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>4.2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.27</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="W16" t="n">
-        <v>1.74</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>9.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>1.09</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>1.11</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
+        <v>70</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
         <v>4.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AL17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
         <v>20</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AO17" t="n">
         <v>85</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.76</v>
+        <v>2.94</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>2.32</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.48</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.26</v>
-      </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
         <v>150</v>
       </c>
-      <c r="AF18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AN18" t="n">
         <v>55</v>
       </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>50</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>3.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>7.2</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>1.96</v>
       </c>
       <c r="AO19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>180</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.54</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.12</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD20" t="n">
         <v>6.6</v>
       </c>
-      <c r="AC20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>34</v>
-      </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.4</v>
+        <v>4.9</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>990</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.95</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
         <v>4.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AE21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO21" t="n">
         <v>9.4</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Zalaegerszeg</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.54</v>
+        <v>3.95</v>
       </c>
       <c r="G22" t="n">
-        <v>1.59</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
         <v>7</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X22" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>8.6</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>7.8</v>
       </c>
       <c r="G23" t="n">
-        <v>2.48</v>
+        <v>710</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>6.2</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1.18</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>2.58</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>9.6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J24" t="n">
         <v>2.56</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>1.72</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>2.34</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>17.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>3.9</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>1.31</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>4.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="AF24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG24" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="G25" t="n">
-        <v>2.94</v>
+        <v>3.8</v>
       </c>
       <c r="H25" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.78</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>2.34</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>1.43</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
       <c r="N25" t="n">
-        <v>3.65</v>
+        <v>1.47</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.89</v>
+        <v>1.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>36</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>4.3</v>
       </c>
       <c r="U25" t="n">
-        <v>2.14</v>
+        <v>1.26</v>
       </c>
       <c r="V25" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>3.35</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="n">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="G26" t="n">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="R26" t="n">
         <v>1.15</v>
       </c>
       <c r="S26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>1.68</v>
+        <v>2.62</v>
       </c>
       <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF26" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
         <v>36</v>
       </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AN26" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.68</v>
+        <v>4.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="I27" t="n">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="S27" t="n">
-        <v>2.48</v>
+        <v>1.21</v>
       </c>
       <c r="T27" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AI27" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.58</v>
+        <v>10.5</v>
       </c>
       <c r="G28" t="n">
-        <v>2.72</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>2.58</v>
+        <v>1.47</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.78</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
-        <v>1.48</v>
+        <v>3.05</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>5.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>24</v>
+        <v>6.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AJ28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AN28" t="n">
-        <v>12.5</v>
+        <v>210</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>First Vienna Fc 1894</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.8</v>
+        <v>1.42</v>
       </c>
       <c r="G29" t="n">
-        <v>3.95</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1.94</v>
       </c>
-      <c r="I29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="R29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S29" t="n">
         <v>4.1</v>
       </c>
-      <c r="K29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="T29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF29" t="n">
         <v>6.4</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>34</v>
-      </c>
       <c r="AG29" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
         <v>260</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>7.8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>1.56</v>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.79</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>1.84</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>2.58</v>
       </c>
       <c r="R30" t="n">
-        <v>1.64</v>
+        <v>1.14</v>
       </c>
       <c r="S30" t="n">
-        <v>2.46</v>
+        <v>6.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.99</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>1.23</v>
+        <v>2.66</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="n">
         <v>14</v>
       </c>
-      <c r="AA30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="AF30" t="n">
-        <v>190</v>
+        <v>8.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH30" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>32</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK30" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="n">
         <v>120</v>
       </c>
       <c r="AM30" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.73</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>1.77</v>
+        <v>34</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>1.14</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>1.15</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>5.1</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="S31" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="T31" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="U31" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>7.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>48</v>
+        <v>7.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>260</v>
+        <v>7.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>7.8</v>
       </c>
       <c r="AE31" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI31" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI31" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.4</v>
+        <v>150</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="R32" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
         <v>2.26</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>340</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
         <v>15</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.89</v>
+        <v>4.2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>3.95</v>
+        <v>1.58</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.6</v>
+        <v>1.29</v>
       </c>
       <c r="O33" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="P33" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>2.74</v>
       </c>
       <c r="S33" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="T33" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="X33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AI33" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="n">
-        <v>7.6</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.4</v>
       </c>
-      <c r="I34" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
         <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U34" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.46</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X34" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>23</v>
       </c>
-      <c r="Z34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>21</v>
-      </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AO34" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Univ Catolica (Ecu)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Libertad FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.5</v>
+        <v>1.35</v>
       </c>
       <c r="G35" t="n">
-        <v>2.58</v>
+        <v>1.39</v>
       </c>
       <c r="H35" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>2.86</v>
+        <v>10.5</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S35" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>3.55</v>
       </c>
       <c r="X35" t="n">
-        <v>34</v>
+        <v>960</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Z35" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AA35" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AB35" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>960</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AF35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="AI35" t="n">
-        <v>32</v>
+        <v>960</v>
       </c>
       <c r="AJ35" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="AL35" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="AO35" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="H36" t="n">
-        <v>2.4</v>
+        <v>2.82</v>
       </c>
       <c r="I36" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O36" t="n">
         <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>2.52</v>
       </c>
       <c r="G37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1.7</v>
       </c>
-      <c r="H37" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.06</v>
-      </c>
       <c r="R37" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="U37" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="W37" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="X37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB37" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC37" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.4</v>
+        <v>18.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AL37" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AO37" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="H38" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q38" t="n">
         <v>2.32</v>
       </c>
       <c r="R38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S38" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="X38" t="n">
         <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC38" t="n">
         <v>7.6</v>
       </c>
       <c r="AD38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF38" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>29</v>
-      </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK38" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN38" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AO38" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Club Independiente Petr</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Academia de Balompie Bo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>1.52</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.86</v>
+        <v>5.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>2.56</v>
+        <v>5.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>1.49</v>
+        <v>2.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.76</v>
+        <v>1.55</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7</v>
+        <v>2.38</v>
       </c>
       <c r="T39" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>2.9</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA39" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="AB39" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="AD39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AG39" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ39" t="n">
-        <v>900</v>
+        <v>14.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="AL39" t="n">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>210</v>
+        <v>5.8</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="G40" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="H40" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R40" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,1880 +5918,125 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="G41" t="n">
-        <v>2.74</v>
+        <v>5.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72</v>
+        <v>1.59</v>
       </c>
       <c r="I41" t="n">
-        <v>2.74</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="O41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W41" t="n">
         <v>1.23</v>
       </c>
-      <c r="P41" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Austrian Erste Liga</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>First Vienna Fc 1894</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Rapid Vienna (Am)</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X42" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>AC Bra</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X43" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>French Ligue 1</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Nice</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X44" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Scottish Championship</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Queens Park</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Ross Co</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X45" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Sportivo Luqueno</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Olimpia</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>CD Gualberto Villarroel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X47" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Univ Catolica (Ecu)</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Libertad FC</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H48" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N48" t="n">
-        <v>6</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X48" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>960</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Deportes Limache</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Union Espanola</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X49" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Deportes Iquique</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Cobresal</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N50" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X50" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Audax Italiano</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Everton De Vina</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X51" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>960</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Club Independiente Petr</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Academia de Balompie Bo</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W52" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X52" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Atletico Choloma</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N54" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U54" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V54" t="n">
-        <v>2</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO54" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Club Independiente Petr</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Academia de Balompie Bo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
         <v>660</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.1</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>6.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,46 +733,46 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.4</v>
+        <v>2.56</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>510</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>13</v>
       </c>
-      <c r="AK2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>15</v>
-      </c>
       <c r="AO2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Libertad FC</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>2.86</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.32</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,40 +868,40 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.4</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>21</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,801 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union Espanola</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.86</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.56</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.68</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>3.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>960</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
         <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Deportes Iquique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cobresal</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Audax Italiano</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Everton De Vina</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Club Independiente Petr</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Academia de Balompie Bo</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Atletico Choloma</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>960</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.4</v>
       </c>
     </row>
   </sheetData>
